--- a/outputs-HGR-r202/g__Veillonella.xlsx
+++ b/outputs-HGR-r202/g__Veillonella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q185"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -634,6 +644,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -691,6 +706,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -748,6 +768,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -805,6 +830,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -862,6 +892,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -919,6 +954,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -976,6 +1016,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1033,6 +1078,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1090,6 +1140,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1147,6 +1202,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1204,6 +1264,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1261,6 +1326,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1318,6 +1388,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1375,6 +1450,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1432,6 +1512,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1489,6 +1574,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1546,6 +1636,11 @@
           <t>s__Veillonella tobetsuensis</t>
         </is>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>s__Veillonella tobetsuensis</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1603,6 +1698,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1660,6 +1760,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1717,6 +1822,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1774,6 +1884,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1831,6 +1946,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1888,6 +2008,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1945,6 +2070,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2002,6 +2132,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2059,6 +2194,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2116,6 +2256,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2173,6 +2318,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2230,6 +2380,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2287,6 +2442,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2344,6 +2504,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2401,6 +2566,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2458,6 +2628,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2515,6 +2690,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2572,6 +2752,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2629,6 +2814,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2686,6 +2876,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2743,6 +2938,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2800,6 +3000,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2857,6 +3062,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2914,6 +3124,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2971,6 +3186,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3028,6 +3248,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3085,6 +3310,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3142,6 +3372,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3199,6 +3434,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3256,6 +3496,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3313,6 +3558,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3370,6 +3620,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3427,6 +3682,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3484,6 +3744,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3541,6 +3806,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3598,6 +3868,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3655,6 +3930,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3712,6 +3992,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3769,6 +4054,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3826,6 +4116,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3883,6 +4178,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3940,6 +4240,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3997,6 +4302,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4054,6 +4364,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4111,6 +4426,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4168,6 +4488,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -4225,6 +4550,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -4282,6 +4612,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -4339,6 +4674,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -4396,6 +4736,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -4453,6 +4798,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -4510,6 +4860,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -4567,6 +4922,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4624,6 +4984,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4681,6 +5046,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4738,6 +5108,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4795,6 +5170,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4852,6 +5232,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4909,6 +5294,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4966,6 +5356,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -5023,6 +5418,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -5080,6 +5480,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -5137,6 +5542,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -5194,6 +5604,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -5251,6 +5666,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -5308,6 +5728,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -5365,6 +5790,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -5422,6 +5852,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -5479,6 +5914,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -5536,6 +5976,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -5593,6 +6038,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -5650,6 +6100,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -5707,6 +6162,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -5764,6 +6224,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -5821,6 +6286,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -5878,6 +6348,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -5935,6 +6410,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -5992,6 +6472,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -6049,6 +6534,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -6106,6 +6596,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -6163,6 +6658,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -6220,6 +6720,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -6277,6 +6782,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -6334,6 +6844,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -6391,6 +6906,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -6448,6 +6968,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -6505,6 +7030,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -6562,6 +7092,11 @@
           <t>s__Veillonella rogosae</t>
         </is>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>s__Veillonella rogosae</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -6619,6 +7154,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -6676,6 +7216,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -6733,6 +7278,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -6790,6 +7340,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -6847,6 +7402,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -6904,6 +7464,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -6961,6 +7526,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -7018,6 +7588,11 @@
           <t>s__Veillonella tobetsuensis</t>
         </is>
       </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>s__Veillonella tobetsuensis</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -7075,6 +7650,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -7132,6 +7712,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -7189,6 +7774,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -7246,6 +7836,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -7303,6 +7898,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -7360,6 +7960,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -7417,6 +8022,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -7474,6 +8084,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -7531,6 +8146,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -7588,6 +8208,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -7645,6 +8270,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -7702,6 +8332,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -7759,6 +8394,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -7816,6 +8456,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -7873,6 +8518,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -7930,6 +8580,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -7987,6 +8642,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -8044,6 +8704,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -8101,6 +8766,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -8158,6 +8828,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -8215,6 +8890,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -8272,6 +8952,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -8329,6 +9014,11 @@
           <t>s__Veillonella tobetsuensis</t>
         </is>
       </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>s__Veillonella tobetsuensis</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -8386,6 +9076,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -8443,6 +9138,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -8500,6 +9200,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -8557,6 +9262,11 @@
           <t>s__Veillonella rogosae</t>
         </is>
       </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>s__Veillonella rogosae</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -8614,6 +9324,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -8671,6 +9386,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -8728,6 +9448,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -8785,6 +9510,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -8842,6 +9572,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -8899,6 +9634,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -8956,6 +9696,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -9013,6 +9758,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -9070,6 +9820,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -9127,6 +9882,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -9184,6 +9944,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -9241,6 +10006,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -9298,6 +10068,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -9355,6 +10130,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -9412,6 +10192,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -9469,6 +10254,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -9526,6 +10316,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -9583,6 +10378,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -9640,6 +10440,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -9697,6 +10502,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -9754,6 +10564,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -9811,6 +10626,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -9868,6 +10688,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -9925,6 +10750,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -9982,6 +10812,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -10039,6 +10874,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -10096,6 +10936,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -10153,6 +10998,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -10210,6 +11060,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -10267,6 +11122,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -10324,6 +11184,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -10381,6 +11246,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -10438,6 +11308,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -10495,6 +11370,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -10552,6 +11432,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -10609,6 +11494,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -10666,6 +11556,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -10723,6 +11618,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -10780,6 +11680,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -10837,6 +11742,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -10894,6 +11804,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -10951,6 +11866,11 @@
           <t>s__Veillonella atypica</t>
         </is>
       </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -11004,6 +11924,11 @@
         <v>0.4430024378593409</v>
       </c>
       <c r="Q185" t="inlineStr">
+        <is>
+          <t>s__Veillonella rogosae</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
         <is>
           <t>s__Veillonella rogosae</t>
         </is>

--- a/outputs-HGR-r202/g__Veillonella.xlsx
+++ b/outputs-HGR-r202/g__Veillonella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R184"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5055,53 +5055,53 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48957.fa</t>
+          <t>even_MAG-GUT48949.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.06500655720084654</v>
+        <v>2.268887648007347e-14</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0499289477693534</v>
+        <v>0.0006837688397029009</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03001954084825501</v>
+        <v>0.3617531499286301</v>
       </c>
       <c r="E75" t="n">
-        <v>0.09466855189883014</v>
+        <v>0.06623353448796826</v>
       </c>
       <c r="F75" t="n">
-        <v>0.04617077080270327</v>
+        <v>0.02887585984706975</v>
       </c>
       <c r="G75" t="n">
-        <v>0.194656330881917</v>
+        <v>0.1410886384063233</v>
       </c>
       <c r="H75" t="n">
-        <v>0.009609360474536458</v>
+        <v>0.04284825827085844</v>
       </c>
       <c r="I75" t="n">
-        <v>0.08708477749246994</v>
+        <v>0.07494985792781821</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1011234770405166</v>
+        <v>0.07597926036880108</v>
       </c>
       <c r="K75" t="n">
-        <v>0.03570274162047041</v>
+        <v>0.06270238372843456</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02791240066949973</v>
+        <v>0.01088511879457626</v>
       </c>
       <c r="M75" t="n">
-        <v>0.1137402821889666</v>
+        <v>0.0790703264141203</v>
       </c>
       <c r="N75" t="n">
-        <v>0.09660726705692274</v>
+        <v>0.054778625672618</v>
       </c>
       <c r="O75" t="n">
-        <v>0.04776899405471203</v>
+        <v>0.0001512173130563004</v>
       </c>
       <c r="P75" t="n">
-        <v>0.194656330881917</v>
+        <v>0.3617531499286301</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -5117,53 +5117,53 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48959.fa</t>
+          <t>even_MAG-GUT48957.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.04873177232185536</v>
+        <v>0.06500655720084654</v>
       </c>
       <c r="C76" t="n">
-        <v>0.006968880364126794</v>
+        <v>0.0499289477693534</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09954824228768006</v>
+        <v>0.03001954084825501</v>
       </c>
       <c r="E76" t="n">
-        <v>0.09304331418767695</v>
+        <v>0.09466855189883014</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03675273886637997</v>
+        <v>0.04617077080270327</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1923384562476698</v>
+        <v>0.194656330881917</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01507699787135674</v>
+        <v>0.009609360474536458</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1104490645139688</v>
+        <v>0.08708477749246994</v>
       </c>
       <c r="J76" t="n">
-        <v>0.09962241588329432</v>
+        <v>0.1011234770405166</v>
       </c>
       <c r="K76" t="n">
-        <v>0.03577914528297084</v>
+        <v>0.03570274162047041</v>
       </c>
       <c r="L76" t="n">
-        <v>0.03189959408312591</v>
+        <v>0.02791240066949973</v>
       </c>
       <c r="M76" t="n">
-        <v>0.1126491305906166</v>
+        <v>0.1137402821889666</v>
       </c>
       <c r="N76" t="n">
-        <v>0.1032548117162528</v>
+        <v>0.09660726705692274</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01388543578302505</v>
+        <v>0.04776899405471203</v>
       </c>
       <c r="P76" t="n">
-        <v>0.1923384562476698</v>
+        <v>0.194656330881917</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -5179,53 +5179,53 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48964.fa</t>
+          <t>even_MAG-GUT48959.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09040710277523793</v>
+        <v>0.04873177232185536</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01587340956543527</v>
+        <v>0.006968880364126794</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01660844268183371</v>
+        <v>0.09954824228768006</v>
       </c>
       <c r="E77" t="n">
-        <v>0.09762261771496028</v>
+        <v>0.09304331418767695</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04281837655185156</v>
+        <v>0.03675273886637997</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1994667532125888</v>
+        <v>0.1923384562476698</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01568722844751457</v>
+        <v>0.01507699787135674</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0949755448702358</v>
+        <v>0.1104490645139688</v>
       </c>
       <c r="J77" t="n">
-        <v>0.09889928800336355</v>
+        <v>0.09962241588329432</v>
       </c>
       <c r="K77" t="n">
-        <v>0.05647269422289548</v>
+        <v>0.03577914528297084</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05733885743841902</v>
+        <v>0.03189959408312591</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1171572210925652</v>
+        <v>0.1126491305906166</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08347143394459806</v>
+        <v>0.1032548117162528</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01320102947850074</v>
+        <v>0.01388543578302505</v>
       </c>
       <c r="P77" t="n">
-        <v>0.1994667532125888</v>
+        <v>0.1923384562476698</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -5241,53 +5241,53 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48986.fa</t>
+          <t>even_MAG-GUT48964.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.235690165508431e-14</v>
+        <v>0.09040710277523793</v>
       </c>
       <c r="C78" t="n">
-        <v>0.003445678551695606</v>
+        <v>0.01587340956543527</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2275890565335045</v>
+        <v>0.01660844268183371</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08355918166315709</v>
+        <v>0.09762261771496028</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03161650909384778</v>
+        <v>0.04281837655185156</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1812862763093419</v>
+        <v>0.1994667532125888</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02623224911247433</v>
+        <v>0.01568722844751457</v>
       </c>
       <c r="I78" t="n">
-        <v>0.08962448943228835</v>
+        <v>0.0949755448702358</v>
       </c>
       <c r="J78" t="n">
-        <v>0.09041456890145563</v>
+        <v>0.09889928800336355</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02740797091457959</v>
+        <v>0.05647269422289548</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01336077840819839</v>
+        <v>0.05733885743841902</v>
       </c>
       <c r="M78" t="n">
-        <v>0.09242707322502598</v>
+        <v>0.1171572210925652</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08650933916932933</v>
+        <v>0.08347143394459806</v>
       </c>
       <c r="O78" t="n">
-        <v>0.04652682868507921</v>
+        <v>0.01320102947850074</v>
       </c>
       <c r="P78" t="n">
-        <v>0.2275890565335045</v>
+        <v>0.1994667532125888</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -5303,53 +5303,53 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49003.fa</t>
+          <t>even_MAG-GUT48986.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.23928687667673e-14</v>
+        <v>2.235690165508431e-14</v>
       </c>
       <c r="C79" t="n">
-        <v>0.008606089281594459</v>
+        <v>0.003445678551695606</v>
       </c>
       <c r="D79" t="n">
-        <v>0.04023245709693477</v>
+        <v>0.2275890565335045</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08170347935698025</v>
+        <v>0.08355918166315709</v>
       </c>
       <c r="F79" t="n">
-        <v>0.033915479014978</v>
+        <v>0.03161650909384778</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1776498314568699</v>
+        <v>0.1812862763093419</v>
       </c>
       <c r="H79" t="n">
-        <v>0.006153015159835108</v>
+        <v>0.02623224911247433</v>
       </c>
       <c r="I79" t="n">
-        <v>0.08762154648891772</v>
+        <v>0.08962448943228835</v>
       </c>
       <c r="J79" t="n">
-        <v>0.09009101993011022</v>
+        <v>0.09041456890145563</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02628767374277905</v>
+        <v>0.02740797091457959</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02465159584593723</v>
+        <v>0.01336077840819839</v>
       </c>
       <c r="M79" t="n">
-        <v>0.09440397352064706</v>
+        <v>0.09242707322502598</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06730586335124754</v>
+        <v>0.08650933916932933</v>
       </c>
       <c r="O79" t="n">
-        <v>0.2613779757531463</v>
+        <v>0.04652682868507921</v>
       </c>
       <c r="P79" t="n">
-        <v>0.2613779757531463</v>
+        <v>0.2275890565335045</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -5365,53 +5365,53 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49011.fa</t>
+          <t>even_MAG-GUT49003.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.225310907727774e-14</v>
+        <v>2.23928687667673e-14</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01552544690452657</v>
+        <v>0.008606089281594459</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02318569432634495</v>
+        <v>0.04023245709693477</v>
       </c>
       <c r="E80" t="n">
-        <v>0.09343120343077721</v>
+        <v>0.08170347935698025</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03770807561883404</v>
+        <v>0.033915479014978</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1911814761711848</v>
+        <v>0.1776498314568699</v>
       </c>
       <c r="H80" t="n">
-        <v>0.003850761480593158</v>
+        <v>0.006153015159835108</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1045767512712607</v>
+        <v>0.08762154648891772</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1057936298361615</v>
+        <v>0.09009101993011022</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04408870572278091</v>
+        <v>0.02628767374277905</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03777301173141312</v>
+        <v>0.02465159584593723</v>
       </c>
       <c r="M80" t="n">
-        <v>0.1070523879482845</v>
+        <v>0.09440397352064706</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0992487473707321</v>
+        <v>0.06730586335124754</v>
       </c>
       <c r="O80" t="n">
-        <v>0.1365841081870843</v>
+        <v>0.2613779757531463</v>
       </c>
       <c r="P80" t="n">
-        <v>0.1911814761711848</v>
+        <v>0.2613779757531463</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -5427,53 +5427,53 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49026.fa</t>
+          <t>even_MAG-GUT49011.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.04681920284786061</v>
+        <v>2.225310907727774e-14</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03099106502753237</v>
+        <v>0.01552544690452657</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1334030747429081</v>
+        <v>0.02318569432634495</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09233005964384822</v>
+        <v>0.09343120343077721</v>
       </c>
       <c r="F81" t="n">
-        <v>0.03061244836688249</v>
+        <v>0.03770807561883404</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1952267042903796</v>
+        <v>0.1911814761711848</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01392837261139262</v>
+        <v>0.003850761480593158</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1038052904254702</v>
+        <v>0.1045767512712607</v>
       </c>
       <c r="J81" t="n">
-        <v>0.09194125950978707</v>
+        <v>0.1057936298361615</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02849848733016986</v>
+        <v>0.04408870572278091</v>
       </c>
       <c r="L81" t="n">
-        <v>0.009052966552954836</v>
+        <v>0.03777301173141312</v>
       </c>
       <c r="M81" t="n">
-        <v>0.1085191918633366</v>
+        <v>0.1070523879482845</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0986671930242126</v>
+        <v>0.0992487473707321</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01620468376326481</v>
+        <v>0.1365841081870843</v>
       </c>
       <c r="P81" t="n">
-        <v>0.1952267042903796</v>
+        <v>0.1911814761711848</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -5489,53 +5489,53 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49035.fa</t>
+          <t>even_MAG-GUT49026.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.05221279079907679</v>
+        <v>0.04681920284786061</v>
       </c>
       <c r="C82" t="n">
-        <v>0.008492804537377576</v>
+        <v>0.03099106502753237</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08868809877646841</v>
+        <v>0.1334030747429081</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0936232928952038</v>
+        <v>0.09233005964384822</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04565658347327728</v>
+        <v>0.03061244836688249</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1937439159356787</v>
+        <v>0.1952267042903796</v>
       </c>
       <c r="H82" t="n">
-        <v>0.006647370891360867</v>
+        <v>0.01392837261139262</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1100706729686972</v>
+        <v>0.1038052904254702</v>
       </c>
       <c r="J82" t="n">
-        <v>0.09529721185152798</v>
+        <v>0.09194125950978707</v>
       </c>
       <c r="K82" t="n">
-        <v>0.03431559932561724</v>
+        <v>0.02849848733016986</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03228622246553884</v>
+        <v>0.009052966552954836</v>
       </c>
       <c r="M82" t="n">
-        <v>0.1111667509795749</v>
+        <v>0.1085191918633366</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09128099476577134</v>
+        <v>0.0986671930242126</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0365176903348292</v>
+        <v>0.01620468376326481</v>
       </c>
       <c r="P82" t="n">
-        <v>0.1937439159356787</v>
+        <v>0.1952267042903796</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -5551,53 +5551,53 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49036.fa</t>
+          <t>even_MAG-GUT49035.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09048729735399014</v>
+        <v>0.05221279079907679</v>
       </c>
       <c r="C83" t="n">
-        <v>0.02004054014419459</v>
+        <v>0.008492804537377576</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03248047988918257</v>
+        <v>0.08868809877646841</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09690563215528311</v>
+        <v>0.0936232928952038</v>
       </c>
       <c r="F83" t="n">
-        <v>0.05052545362382679</v>
+        <v>0.04565658347327728</v>
       </c>
       <c r="G83" t="n">
-        <v>0.195359722665153</v>
+        <v>0.1937439159356787</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01193987023791565</v>
+        <v>0.006647370891360867</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1009526554764379</v>
+        <v>0.1100706729686972</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1123844270829985</v>
+        <v>0.09529721185152798</v>
       </c>
       <c r="K83" t="n">
-        <v>0.05311657493628142</v>
+        <v>0.03431559932561724</v>
       </c>
       <c r="L83" t="n">
-        <v>0.02738095695647942</v>
+        <v>0.03228622246553884</v>
       </c>
       <c r="M83" t="n">
-        <v>0.1073213412248912</v>
+        <v>0.1111667509795749</v>
       </c>
       <c r="N83" t="n">
-        <v>0.082516869775402</v>
+        <v>0.09128099476577134</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01858817847796375</v>
+        <v>0.0365176903348292</v>
       </c>
       <c r="P83" t="n">
-        <v>0.195359722665153</v>
+        <v>0.1937439159356787</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -5613,53 +5613,53 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49203.fa</t>
+          <t>even_MAG-GUT49036.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.221230016401549e-14</v>
+        <v>0.09048729735399014</v>
       </c>
       <c r="C84" t="n">
-        <v>0.007738545376463764</v>
+        <v>0.02004054014419459</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1602776290325308</v>
+        <v>0.03248047988918257</v>
       </c>
       <c r="E84" t="n">
-        <v>0.09257370217198767</v>
+        <v>0.09690563215528311</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0399160936048258</v>
+        <v>0.05052545362382679</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1922098180168247</v>
+        <v>0.195359722665153</v>
       </c>
       <c r="H84" t="n">
-        <v>0.004195555485102969</v>
+        <v>0.01193987023791565</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1050362916959012</v>
+        <v>0.1009526554764379</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0936814009231416</v>
+        <v>0.1123844270829985</v>
       </c>
       <c r="K84" t="n">
-        <v>0.04766427821521198</v>
+        <v>0.05311657493628142</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04600670490799579</v>
+        <v>0.02738095695647942</v>
       </c>
       <c r="M84" t="n">
-        <v>0.1063900354878938</v>
+        <v>0.1073213412248912</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09074409097074621</v>
+        <v>0.082516869775402</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01356585411135146</v>
+        <v>0.01858817847796375</v>
       </c>
       <c r="P84" t="n">
-        <v>0.1922098180168247</v>
+        <v>0.195359722665153</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -5675,53 +5675,53 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49266.fa</t>
+          <t>even_MAG-GUT49203.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.403876083492549e-14</v>
+        <v>2.221230016401549e-14</v>
       </c>
       <c r="C85" t="n">
-        <v>0.009336812578259147</v>
+        <v>0.007738545376463764</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09381488000198798</v>
+        <v>0.1602776290325308</v>
       </c>
       <c r="E85" t="n">
-        <v>0.09991159011335121</v>
+        <v>0.09257370217198767</v>
       </c>
       <c r="F85" t="n">
-        <v>0.03512724989636066</v>
+        <v>0.0399160936048258</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2125336643552435</v>
+        <v>0.1922098180168247</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02088620880949557</v>
+        <v>0.004195555485102969</v>
       </c>
       <c r="I85" t="n">
-        <v>0.105288714203365</v>
+        <v>0.1050362916959012</v>
       </c>
       <c r="J85" t="n">
-        <v>0.09745628890753767</v>
+        <v>0.0936814009231416</v>
       </c>
       <c r="K85" t="n">
-        <v>0.06004411536581737</v>
+        <v>0.04766427821521198</v>
       </c>
       <c r="L85" t="n">
-        <v>0.02417165371347517</v>
+        <v>0.04600670490799579</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1223769498590832</v>
+        <v>0.1063900354878938</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1180938998814639</v>
+        <v>0.09074409097074621</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0009579723145355586</v>
+        <v>0.01356585411135146</v>
       </c>
       <c r="P85" t="n">
-        <v>0.2125336643552435</v>
+        <v>0.1922098180168247</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -5737,53 +5737,53 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49294.fa</t>
+          <t>even_MAG-GUT49266.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.09211378752712013</v>
+        <v>2.403876083492549e-14</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01957496844698217</v>
+        <v>0.009336812578259147</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01699255654630767</v>
+        <v>0.09381488000198798</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09840198399832509</v>
+        <v>0.09991159011335121</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04316083948128934</v>
+        <v>0.03512724989636066</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1959356065837029</v>
+        <v>0.2125336643552435</v>
       </c>
       <c r="H86" t="n">
-        <v>0.02138309779121089</v>
+        <v>0.02088620880949557</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1039450359996082</v>
+        <v>0.105288714203365</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1023150574559665</v>
+        <v>0.09745628890753767</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03728501314736821</v>
+        <v>0.06004411536581737</v>
       </c>
       <c r="L86" t="n">
-        <v>0.02621840025281335</v>
+        <v>0.02417165371347517</v>
       </c>
       <c r="M86" t="n">
-        <v>0.1179365802694482</v>
+        <v>0.1223769498590832</v>
       </c>
       <c r="N86" t="n">
-        <v>0.10912255010364</v>
+        <v>0.1180938998814639</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01561452239621741</v>
+        <v>0.0009579723145355586</v>
       </c>
       <c r="P86" t="n">
-        <v>0.1959356065837029</v>
+        <v>0.2125336643552435</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -5799,53 +5799,53 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49309.fa</t>
+          <t>even_MAG-GUT49294.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.495611822060275e-14</v>
+        <v>0.09211378752712013</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00898861379155394</v>
+        <v>0.01957496844698217</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0007298969474524572</v>
+        <v>0.01699255654630767</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1041595973179461</v>
+        <v>0.09840198399832509</v>
       </c>
       <c r="F87" t="n">
-        <v>0.04399571257805491</v>
+        <v>0.04316083948128934</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2131992570408405</v>
+        <v>0.1959356065837029</v>
       </c>
       <c r="H87" t="n">
-        <v>0.00500032031852474</v>
+        <v>0.02138309779121089</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1197739260201238</v>
+        <v>0.1039450359996082</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1070221048911201</v>
+        <v>0.1023150574559665</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03360454417753297</v>
+        <v>0.03728501314736821</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04842878431132701</v>
+        <v>0.02621840025281335</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1240266225164986</v>
+        <v>0.1179365802694482</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09349527455554546</v>
+        <v>0.10912255010364</v>
       </c>
       <c r="O87" t="n">
-        <v>0.09757534553345448</v>
+        <v>0.01561452239621741</v>
       </c>
       <c r="P87" t="n">
-        <v>0.2131992570408405</v>
+        <v>0.1959356065837029</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -5861,53 +5861,53 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49328.fa</t>
+          <t>even_MAG-GUT49309.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08504818060392977</v>
+        <v>2.495611822060275e-14</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01048709660607037</v>
+        <v>0.00898861379155394</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03297914412215271</v>
+        <v>0.0007298969474524572</v>
       </c>
       <c r="E88" t="n">
-        <v>0.09620565083218494</v>
+        <v>0.1041595973179461</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03718603336044676</v>
+        <v>0.04399571257805491</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2055941806629527</v>
+        <v>0.2131992570408405</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0299166859147641</v>
+        <v>0.00500032031852474</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1072708761143054</v>
+        <v>0.1197739260201238</v>
       </c>
       <c r="J88" t="n">
-        <v>0.09317762345390897</v>
+        <v>0.1070221048911201</v>
       </c>
       <c r="K88" t="n">
-        <v>0.04696714745348036</v>
+        <v>0.03360454417753297</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04530638545987382</v>
+        <v>0.04842878431132701</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1131582745012294</v>
+        <v>0.1240266225164986</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08590257047279713</v>
+        <v>0.09349527455554546</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01080015044190362</v>
+        <v>0.09757534553345448</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2055941806629527</v>
+        <v>0.2131992570408405</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -5923,53 +5923,53 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49355.fa</t>
+          <t>even_MAG-GUT49328.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07806383976360411</v>
+        <v>0.08504818060392977</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01443622901146398</v>
+        <v>0.01048709660607037</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02333109326993328</v>
+        <v>0.03297914412215271</v>
       </c>
       <c r="E89" t="n">
-        <v>0.09696501939997165</v>
+        <v>0.09620565083218494</v>
       </c>
       <c r="F89" t="n">
-        <v>0.04190172749533076</v>
+        <v>0.03718603336044676</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1955790955722753</v>
+        <v>0.2055941806629527</v>
       </c>
       <c r="H89" t="n">
-        <v>0.03049760650283504</v>
+        <v>0.0299166859147641</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1184639432231891</v>
+        <v>0.1072708761143054</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1081505294990122</v>
+        <v>0.09317762345390897</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03805027748703337</v>
+        <v>0.04696714745348036</v>
       </c>
       <c r="L89" t="n">
-        <v>0.01558812689833743</v>
+        <v>0.04530638545987382</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1118227122640284</v>
+        <v>0.1131582745012294</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1121646083759354</v>
+        <v>0.08590257047279713</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0149851912370499</v>
+        <v>0.01080015044190362</v>
       </c>
       <c r="P89" t="n">
-        <v>0.1955790955722753</v>
+        <v>0.2055941806629527</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -5985,53 +5985,53 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49371.fa</t>
+          <t>even_MAG-GUT49355.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06212558321577746</v>
+        <v>0.07806383976360411</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01128133741417122</v>
+        <v>0.01443622901146398</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02182461377613532</v>
+        <v>0.02333109326993328</v>
       </c>
       <c r="E90" t="n">
-        <v>0.09559833355437611</v>
+        <v>0.09696501939997165</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03993753594134566</v>
+        <v>0.04190172749533076</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1920223170090969</v>
+        <v>0.1955790955722753</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01315866817460299</v>
+        <v>0.03049760650283504</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1078201297216305</v>
+        <v>0.1184639432231891</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09308719681670788</v>
+        <v>0.1081505294990122</v>
       </c>
       <c r="K90" t="n">
-        <v>0.06482971777832888</v>
+        <v>0.03805027748703337</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06288781572203199</v>
+        <v>0.01558812689833743</v>
       </c>
       <c r="M90" t="n">
-        <v>0.1172329089014529</v>
+        <v>0.1118227122640284</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1111602076700263</v>
+        <v>0.1121646083759354</v>
       </c>
       <c r="O90" t="n">
-        <v>0.007033634304315789</v>
+        <v>0.0149851912370499</v>
       </c>
       <c r="P90" t="n">
-        <v>0.1920223170090969</v>
+        <v>0.1955790955722753</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -6047,53 +6047,53 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49399.fa</t>
+          <t>even_MAG-GUT49371.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.25470906090106e-14</v>
+        <v>0.06212558321577746</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01377645451288209</v>
+        <v>0.01128133741417122</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01616317287703843</v>
+        <v>0.02182461377613532</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07252879723827894</v>
+        <v>0.09559833355437611</v>
       </c>
       <c r="F91" t="n">
-        <v>0.02700609935432856</v>
+        <v>0.03993753594134566</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1595614855750367</v>
+        <v>0.1920223170090969</v>
       </c>
       <c r="H91" t="n">
-        <v>0.00499985754075079</v>
+        <v>0.01315866817460299</v>
       </c>
       <c r="I91" t="n">
-        <v>0.07414907068695871</v>
+        <v>0.1078201297216305</v>
       </c>
       <c r="J91" t="n">
-        <v>0.07657363189526747</v>
+        <v>0.09308719681670788</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02719098475296029</v>
+        <v>0.06482971777832888</v>
       </c>
       <c r="L91" t="n">
-        <v>0.02382471423772982</v>
+        <v>0.06288781572203199</v>
       </c>
       <c r="M91" t="n">
-        <v>0.08365134748116053</v>
+        <v>0.1172329089014529</v>
       </c>
       <c r="N91" t="n">
-        <v>0.076049917108564</v>
+        <v>0.1111602076700263</v>
       </c>
       <c r="O91" t="n">
-        <v>0.3445244667390213</v>
+        <v>0.007033634304315789</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3445244667390213</v>
+        <v>0.1920223170090969</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -6109,53 +6109,53 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49414.fa</t>
+          <t>even_MAG-GUT49399.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.433657227471257e-14</v>
+        <v>2.25470906090106e-14</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0007229091144126876</v>
+        <v>0.01377645451288209</v>
       </c>
       <c r="D92" t="n">
-        <v>0.04134421451379063</v>
+        <v>0.01616317287703843</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1009574784306619</v>
+        <v>0.07252879723827894</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04322334936364469</v>
+        <v>0.02700609935432856</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2129171775103045</v>
+        <v>0.1595614855750367</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06517613505985084</v>
+        <v>0.00499985754075079</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1170146964745025</v>
+        <v>0.07414907068695871</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1043245746689125</v>
+        <v>0.07657363189526747</v>
       </c>
       <c r="K92" t="n">
-        <v>0.07120715218483138</v>
+        <v>0.02719098475296029</v>
       </c>
       <c r="L92" t="n">
-        <v>0.01677361697645621</v>
+        <v>0.02382471423772982</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1217971315208919</v>
+        <v>0.08365134748116053</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09761281420352794</v>
+        <v>0.076049917108564</v>
       </c>
       <c r="O92" t="n">
-        <v>0.006928749978188021</v>
+        <v>0.3445244667390213</v>
       </c>
       <c r="P92" t="n">
-        <v>0.2129171775103045</v>
+        <v>0.3445244667390213</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -6171,53 +6171,53 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49474.fa</t>
+          <t>even_MAG-GUT49414.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.259918144748515e-14</v>
+        <v>2.433657227471257e-14</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01349461110036588</v>
+        <v>0.0007229091144126876</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0420496710544345</v>
+        <v>0.04134421451379063</v>
       </c>
       <c r="E93" t="n">
-        <v>0.09414606336730653</v>
+        <v>0.1009574784306619</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03416345655627246</v>
+        <v>0.04322334936364469</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1998533982300687</v>
+        <v>0.2129171775103045</v>
       </c>
       <c r="H93" t="n">
-        <v>0.01648134328836964</v>
+        <v>0.06517613505985084</v>
       </c>
       <c r="I93" t="n">
-        <v>0.09686257079896277</v>
+        <v>0.1170146964745025</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1023758998561407</v>
+        <v>0.1043245746689125</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01934563950345598</v>
+        <v>0.07120715218483138</v>
       </c>
       <c r="L93" t="n">
-        <v>0.01123697018376138</v>
+        <v>0.01677361697645621</v>
       </c>
       <c r="M93" t="n">
-        <v>0.111643670185955</v>
+        <v>0.1217971315208919</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08690228772170211</v>
+        <v>0.09761281420352794</v>
       </c>
       <c r="O93" t="n">
-        <v>0.1714444181531816</v>
+        <v>0.006928749978188021</v>
       </c>
       <c r="P93" t="n">
-        <v>0.1998533982300687</v>
+        <v>0.2129171775103045</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -6233,53 +6233,53 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49516.fa</t>
+          <t>even_MAG-GUT49474.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.07877585747727107</v>
+        <v>2.259918144748515e-14</v>
       </c>
       <c r="C94" t="n">
-        <v>0.00998115811367415</v>
+        <v>0.01349461110036588</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00803812163098361</v>
+        <v>0.0420496710544345</v>
       </c>
       <c r="E94" t="n">
-        <v>0.09746630254689832</v>
+        <v>0.09414606336730653</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04186431648460055</v>
+        <v>0.03416345655627246</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2000265259729544</v>
+        <v>0.1998533982300687</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01472888822161581</v>
+        <v>0.01648134328836964</v>
       </c>
       <c r="I94" t="n">
-        <v>0.09705888882072417</v>
+        <v>0.09686257079896277</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09596573579304041</v>
+        <v>0.1023758998561407</v>
       </c>
       <c r="K94" t="n">
-        <v>0.05097529172632467</v>
+        <v>0.01934563950345598</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05469991840759084</v>
+        <v>0.01123697018376138</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1186461253787823</v>
+        <v>0.111643670185955</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09205952863703734</v>
+        <v>0.08690228772170211</v>
       </c>
       <c r="O94" t="n">
-        <v>0.03971334078850228</v>
+        <v>0.1714444181531816</v>
       </c>
       <c r="P94" t="n">
-        <v>0.2000265259729544</v>
+        <v>0.1998533982300687</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -6295,53 +6295,53 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49534.fa</t>
+          <t>even_MAG-GUT49516.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.233869012349727e-14</v>
+        <v>0.07877585747727107</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01530136986848555</v>
+        <v>0.00998115811367415</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1960551056607857</v>
+        <v>0.00803812163098361</v>
       </c>
       <c r="E95" t="n">
-        <v>0.08544435962668649</v>
+        <v>0.09746630254689832</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03286662392769892</v>
+        <v>0.04186431648460055</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1820960994779787</v>
+        <v>0.2000265259729544</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02046074474976576</v>
+        <v>0.01472888822161581</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1020299960099942</v>
+        <v>0.09705888882072417</v>
       </c>
       <c r="J95" t="n">
-        <v>0.08798922450612193</v>
+        <v>0.09596573579304041</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04705902118128669</v>
+        <v>0.05097529172632467</v>
       </c>
       <c r="L95" t="n">
-        <v>0.006389542396329455</v>
+        <v>0.05469991840759084</v>
       </c>
       <c r="M95" t="n">
-        <v>0.09702942323405918</v>
+        <v>0.1186461253787823</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08808085017774789</v>
+        <v>0.09205952863703734</v>
       </c>
       <c r="O95" t="n">
-        <v>0.03919763918303718</v>
+        <v>0.03971334078850228</v>
       </c>
       <c r="P95" t="n">
-        <v>0.1960551056607857</v>
+        <v>0.2000265259729544</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -6357,53 +6357,53 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49545.fa</t>
+          <t>even_MAG-GUT49534.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.09553627569142192</v>
+        <v>2.233869012349727e-14</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01971705816422924</v>
+        <v>0.01530136986848555</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0260542231926743</v>
+        <v>0.1960551056607857</v>
       </c>
       <c r="E96" t="n">
-        <v>0.09825957907029813</v>
+        <v>0.08544435962668649</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0482093808550069</v>
+        <v>0.03286662392769892</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1973267894800301</v>
+        <v>0.1820960994779787</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01242163328305621</v>
+        <v>0.02046074474976576</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0962079536593296</v>
+        <v>0.1020299960099942</v>
       </c>
       <c r="J96" t="n">
-        <v>0.105117933680421</v>
+        <v>0.08798922450612193</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0482240347098537</v>
+        <v>0.04705902118128669</v>
       </c>
       <c r="L96" t="n">
-        <v>0.02391064288639095</v>
+        <v>0.006389542396329455</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1159606924535476</v>
+        <v>0.09702942323405918</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1033310478526172</v>
+        <v>0.08808085017774789</v>
       </c>
       <c r="O96" t="n">
-        <v>0.009722755021123221</v>
+        <v>0.03919763918303718</v>
       </c>
       <c r="P96" t="n">
-        <v>0.1973267894800301</v>
+        <v>0.1960551056607857</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -6419,53 +6419,53 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49558.fa</t>
+          <t>even_MAG-GUT49545.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.261990250719108e-14</v>
+        <v>0.09553627569142192</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01390399860310991</v>
+        <v>0.01971705816422924</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1413224415502649</v>
+        <v>0.0260542231926743</v>
       </c>
       <c r="E97" t="n">
-        <v>0.09529866948368235</v>
+        <v>0.09825957907029813</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04048138850583147</v>
+        <v>0.0482093808550069</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1963402814999356</v>
+        <v>0.1973267894800301</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02393776036577727</v>
+        <v>0.01242163328305621</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1092816876661957</v>
+        <v>0.0962079536593296</v>
       </c>
       <c r="J97" t="n">
-        <v>0.09337697184596866</v>
+        <v>0.105117933680421</v>
       </c>
       <c r="K97" t="n">
-        <v>0.04226541914589133</v>
+        <v>0.0482240347098537</v>
       </c>
       <c r="L97" t="n">
-        <v>0.01088592860622121</v>
+        <v>0.02391064288639095</v>
       </c>
       <c r="M97" t="n">
-        <v>0.1100035285231657</v>
+        <v>0.1159606924535476</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1124852309182329</v>
+        <v>0.1033310478526172</v>
       </c>
       <c r="O97" t="n">
-        <v>0.01041669328570042</v>
+        <v>0.009722755021123221</v>
       </c>
       <c r="P97" t="n">
-        <v>0.1963402814999356</v>
+        <v>0.1973267894800301</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -6481,53 +6481,53 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49568.fa</t>
+          <t>even_MAG-GUT49558.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05424740069136266</v>
+        <v>2.261990250719108e-14</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01094015288529562</v>
+        <v>0.01390399860310991</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1241111335232664</v>
+        <v>0.1413224415502649</v>
       </c>
       <c r="E98" t="n">
-        <v>0.09376767159362642</v>
+        <v>0.09529866948368235</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04234995022753191</v>
+        <v>0.04048138850583147</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1937604537823631</v>
+        <v>0.1963402814999356</v>
       </c>
       <c r="H98" t="n">
-        <v>0.007614814494800587</v>
+        <v>0.02393776036577727</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1039363102443225</v>
+        <v>0.1092816876661957</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09938438505373663</v>
+        <v>0.09337697184596866</v>
       </c>
       <c r="K98" t="n">
-        <v>0.03845679255586232</v>
+        <v>0.04226541914589133</v>
       </c>
       <c r="L98" t="n">
-        <v>0.02337299804582393</v>
+        <v>0.01088592860622121</v>
       </c>
       <c r="M98" t="n">
-        <v>0.1107985670176474</v>
+        <v>0.1100035285231657</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0760017887294383</v>
+        <v>0.1124852309182329</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02125758115492224</v>
+        <v>0.01041669328570042</v>
       </c>
       <c r="P98" t="n">
-        <v>0.1937604537823631</v>
+        <v>0.1963402814999356</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -6543,53 +6543,53 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49571.fa</t>
+          <t>even_MAG-GUT49568.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.09110382678450758</v>
+        <v>0.05424740069136266</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01542503593803572</v>
+        <v>0.01094015288529562</v>
       </c>
       <c r="D99" t="n">
-        <v>0.04230392596550117</v>
+        <v>0.1241111335232664</v>
       </c>
       <c r="E99" t="n">
-        <v>0.09707400164464829</v>
+        <v>0.09376767159362642</v>
       </c>
       <c r="F99" t="n">
-        <v>0.04533794027877413</v>
+        <v>0.04234995022753191</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1994104894109631</v>
+        <v>0.1937604537823631</v>
       </c>
       <c r="H99" t="n">
-        <v>0.01924977477929458</v>
+        <v>0.007614814494800587</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1122909925719384</v>
+        <v>0.1039363102443225</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09827253963422715</v>
+        <v>0.09938438505373663</v>
       </c>
       <c r="K99" t="n">
-        <v>0.04991120385092116</v>
+        <v>0.03845679255586232</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01925167241623293</v>
+        <v>0.02337299804582393</v>
       </c>
       <c r="M99" t="n">
-        <v>0.1131032702212015</v>
+        <v>0.1107985670176474</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08457958057677799</v>
+        <v>0.0760017887294383</v>
       </c>
       <c r="O99" t="n">
-        <v>0.01268574592697642</v>
+        <v>0.02125758115492224</v>
       </c>
       <c r="P99" t="n">
-        <v>0.1994104894109631</v>
+        <v>0.1937604537823631</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -6605,53 +6605,53 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49576.fa</t>
+          <t>even_MAG-GUT49571.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.09158779312714725</v>
+        <v>0.09110382678450758</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01112190737670817</v>
+        <v>0.01542503593803572</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01235559006444752</v>
+        <v>0.04230392596550117</v>
       </c>
       <c r="E100" t="n">
-        <v>0.09793052719351962</v>
+        <v>0.09707400164464829</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04423027867836204</v>
+        <v>0.04533794027877413</v>
       </c>
       <c r="G100" t="n">
-        <v>0.2044876147806123</v>
+        <v>0.1994104894109631</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02200386803083778</v>
+        <v>0.01924977477929458</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1153591565610465</v>
+        <v>0.1122909925719384</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1038611689977731</v>
+        <v>0.09827253963422715</v>
       </c>
       <c r="K100" t="n">
-        <v>0.06542507427382205</v>
+        <v>0.04991120385092116</v>
       </c>
       <c r="L100" t="n">
-        <v>0.03192038778171249</v>
+        <v>0.01925167241623293</v>
       </c>
       <c r="M100" t="n">
-        <v>0.1113449688932593</v>
+        <v>0.1131032702212015</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07455932463464297</v>
+        <v>0.08457958057677799</v>
       </c>
       <c r="O100" t="n">
-        <v>0.01381233960610891</v>
+        <v>0.01268574592697642</v>
       </c>
       <c r="P100" t="n">
-        <v>0.2044876147806123</v>
+        <v>0.1994104894109631</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -6667,53 +6667,53 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49583.fa</t>
+          <t>even_MAG-GUT49576.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.227498246314754e-14</v>
+        <v>0.09158779312714725</v>
       </c>
       <c r="C101" t="n">
-        <v>0.008275856591835672</v>
+        <v>0.01112190737670817</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1900804228003727</v>
+        <v>0.01235559006444752</v>
       </c>
       <c r="E101" t="n">
-        <v>0.08888311767590819</v>
+        <v>0.09793052719351962</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0399338720955516</v>
+        <v>0.04423027867836204</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1822362353126678</v>
+        <v>0.2044876147806123</v>
       </c>
       <c r="H101" t="n">
-        <v>0.009173074880490935</v>
+        <v>0.02200386803083778</v>
       </c>
       <c r="I101" t="n">
-        <v>0.09497961822003696</v>
+        <v>0.1153591565610465</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1009468397729289</v>
+        <v>0.1038611689977731</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02764736566068909</v>
+        <v>0.06542507427382205</v>
       </c>
       <c r="L101" t="n">
-        <v>0.01831356298107008</v>
+        <v>0.03192038778171249</v>
       </c>
       <c r="M101" t="n">
-        <v>0.1034886701942142</v>
+        <v>0.1113449688932593</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08453194236399347</v>
+        <v>0.07455932463464297</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0515094214502182</v>
+        <v>0.01381233960610891</v>
       </c>
       <c r="P101" t="n">
-        <v>0.1900804228003727</v>
+        <v>0.2044876147806123</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -6729,53 +6729,53 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49589.fa</t>
+          <t>even_MAG-GUT49583.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.04937730439806153</v>
+        <v>2.227498246314754e-14</v>
       </c>
       <c r="C102" t="n">
-        <v>0.00976510995189408</v>
+        <v>0.008275856591835672</v>
       </c>
       <c r="D102" t="n">
-        <v>0.125931064435118</v>
+        <v>0.1900804228003727</v>
       </c>
       <c r="E102" t="n">
-        <v>0.09275731757308966</v>
+        <v>0.08888311767590819</v>
       </c>
       <c r="F102" t="n">
-        <v>0.04183968973814338</v>
+        <v>0.0399338720955516</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1939205803043194</v>
+        <v>0.1822362353126678</v>
       </c>
       <c r="H102" t="n">
-        <v>0.01003103754960204</v>
+        <v>0.009173074880490935</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1019025071209166</v>
+        <v>0.09497961822003696</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1018298547392248</v>
+        <v>0.1009468397729289</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0403155863546189</v>
+        <v>0.02764736566068909</v>
       </c>
       <c r="L102" t="n">
-        <v>0.02098525068866568</v>
+        <v>0.01831356298107008</v>
       </c>
       <c r="M102" t="n">
-        <v>0.1122190048328453</v>
+        <v>0.1034886701942142</v>
       </c>
       <c r="N102" t="n">
-        <v>0.06955155416362309</v>
+        <v>0.08453194236399347</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02957413814987751</v>
+        <v>0.0515094214502182</v>
       </c>
       <c r="P102" t="n">
-        <v>0.1939205803043194</v>
+        <v>0.1900804228003727</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -6791,53 +6791,53 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49596.fa</t>
+          <t>even_MAG-GUT49589.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.07987283869004576</v>
+        <v>0.04937730439806153</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01158754360980683</v>
+        <v>0.00976510995189408</v>
       </c>
       <c r="D103" t="n">
-        <v>0.008394176176964823</v>
+        <v>0.125931064435118</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0973402640142691</v>
+        <v>0.09275731757308966</v>
       </c>
       <c r="F103" t="n">
-        <v>0.04012911192421047</v>
+        <v>0.04183968973814338</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1971823440407367</v>
+        <v>0.1939205803043194</v>
       </c>
       <c r="H103" t="n">
-        <v>0.01878090811711196</v>
+        <v>0.01003103754960204</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1008474668563397</v>
+        <v>0.1019025071209166</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1028297774695556</v>
+        <v>0.1018298547392248</v>
       </c>
       <c r="K103" t="n">
-        <v>0.04136212948587299</v>
+        <v>0.0403155863546189</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08429633215166361</v>
+        <v>0.02098525068866568</v>
       </c>
       <c r="M103" t="n">
-        <v>0.1186523027268761</v>
+        <v>0.1122190048328453</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08787508914601953</v>
+        <v>0.06955155416362309</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0108497155905268</v>
+        <v>0.02957413814987751</v>
       </c>
       <c r="P103" t="n">
-        <v>0.1971823440407367</v>
+        <v>0.1939205803043194</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -6853,53 +6853,53 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49597.fa</t>
+          <t>even_MAG-GUT49596.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.05966875879569677</v>
+        <v>0.07987283869004576</v>
       </c>
       <c r="C104" t="n">
-        <v>0.00610612403443986</v>
+        <v>0.01158754360980683</v>
       </c>
       <c r="D104" t="n">
-        <v>0.04043306456937271</v>
+        <v>0.008394176176964823</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09323762953397019</v>
+        <v>0.0973402640142691</v>
       </c>
       <c r="F104" t="n">
-        <v>0.04290839965755188</v>
+        <v>0.04012911192421047</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1947274714980495</v>
+        <v>0.1971823440407367</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01442756920216563</v>
+        <v>0.01878090811711196</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1126616570222701</v>
+        <v>0.1008474668563397</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1014947895654096</v>
+        <v>0.1028297774695556</v>
       </c>
       <c r="K104" t="n">
-        <v>0.04107045281150778</v>
+        <v>0.04136212948587299</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05450774611339442</v>
+        <v>0.08429633215166361</v>
       </c>
       <c r="M104" t="n">
-        <v>0.1088884698054131</v>
+        <v>0.1186523027268761</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07825637643515894</v>
+        <v>0.08787508914601953</v>
       </c>
       <c r="O104" t="n">
-        <v>0.05161149095559978</v>
+        <v>0.0108497155905268</v>
       </c>
       <c r="P104" t="n">
-        <v>0.1947274714980495</v>
+        <v>0.1971823440407367</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -6915,53 +6915,53 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49604.fa</t>
+          <t>even_MAG-GUT49597.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.04882112161885602</v>
+        <v>0.05966875879569677</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01234601104842827</v>
+        <v>0.00610612403443986</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1049634645394354</v>
+        <v>0.04043306456937271</v>
       </c>
       <c r="E105" t="n">
-        <v>0.09169942941572078</v>
+        <v>0.09323762953397019</v>
       </c>
       <c r="F105" t="n">
-        <v>0.03365127539446884</v>
+        <v>0.04290839965755188</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1990723604656093</v>
+        <v>0.1947274714980495</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01961253363064815</v>
+        <v>0.01442756920216563</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1024228915818192</v>
+        <v>0.1126616570222701</v>
       </c>
       <c r="J105" t="n">
-        <v>0.08374298300173338</v>
+        <v>0.1014947895654096</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0428033676451051</v>
+        <v>0.04107045281150778</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0161653452040365</v>
+        <v>0.05450774611339442</v>
       </c>
       <c r="M105" t="n">
-        <v>0.1106809064632866</v>
+        <v>0.1088884698054131</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1037544840692608</v>
+        <v>0.07825637643515894</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03026382592159169</v>
+        <v>0.05161149095559978</v>
       </c>
       <c r="P105" t="n">
-        <v>0.1990723604656093</v>
+        <v>0.1947274714980495</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -6977,177 +6977,177 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5199.fa</t>
+          <t>even_MAG-GUT49604.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2.276115571086028e-14</v>
+        <v>0.04882112161885602</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0007380503190662632</v>
+        <v>0.01234601104842827</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4694504871045752</v>
+        <v>0.1049634645394354</v>
       </c>
       <c r="E106" t="n">
-        <v>0.05806527033263778</v>
+        <v>0.09169942941572078</v>
       </c>
       <c r="F106" t="n">
-        <v>0.02587856156115268</v>
+        <v>0.03365127539446884</v>
       </c>
       <c r="G106" t="n">
-        <v>0.125687580254544</v>
+        <v>0.1990723604656093</v>
       </c>
       <c r="H106" t="n">
-        <v>0.02443531106284821</v>
+        <v>0.01961253363064815</v>
       </c>
       <c r="I106" t="n">
-        <v>0.06854706111564013</v>
+        <v>0.1024228915818192</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06469210886943236</v>
+        <v>0.08374298300173338</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02753894980075771</v>
+        <v>0.0428033676451051</v>
       </c>
       <c r="L106" t="n">
-        <v>0.009073743656943786</v>
+        <v>0.0161653452040365</v>
       </c>
       <c r="M106" t="n">
-        <v>0.071813101320213</v>
+        <v>0.1106809064632866</v>
       </c>
       <c r="N106" t="n">
-        <v>0.05344328535955536</v>
+        <v>0.1037544840692608</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0006364892426106853</v>
+        <v>0.03026382592159169</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4694504871045752</v>
+        <v>0.1990723604656093</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>s__Veillonella rogosae</t>
+          <t>s__Veillonella atypica</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>s__Veillonella rogosae</t>
+          <t>s__Veillonella atypica</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5687.fa</t>
+          <t>even_MAG-GUT5199.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.05989220913122988</v>
+        <v>2.276115571086028e-14</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02328464445267805</v>
+        <v>0.0007380503190662632</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09851186276681081</v>
+        <v>0.4694504871045752</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0947564465278693</v>
+        <v>0.05806527033263778</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04160579328070001</v>
+        <v>0.02587856156115268</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1942062731310164</v>
+        <v>0.125687580254544</v>
       </c>
       <c r="H107" t="n">
-        <v>0.007797317999980883</v>
+        <v>0.02443531106284821</v>
       </c>
       <c r="I107" t="n">
-        <v>0.09503117491250167</v>
+        <v>0.06854706111564013</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1028710368110074</v>
+        <v>0.06469210886943236</v>
       </c>
       <c r="K107" t="n">
-        <v>0.04352036766952869</v>
+        <v>0.02753894980075771</v>
       </c>
       <c r="L107" t="n">
-        <v>0.02700739149137749</v>
+        <v>0.009073743656943786</v>
       </c>
       <c r="M107" t="n">
-        <v>0.1128075026304115</v>
+        <v>0.071813101320213</v>
       </c>
       <c r="N107" t="n">
-        <v>0.089827839662763</v>
+        <v>0.05344328535955536</v>
       </c>
       <c r="O107" t="n">
-        <v>0.008880139532124886</v>
+        <v>0.0006364892426106853</v>
       </c>
       <c r="P107" t="n">
-        <v>0.1942062731310164</v>
+        <v>0.4694504871045752</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>s__Veillonella atypica</t>
+          <t>s__Veillonella rogosae</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>s__Veillonella atypica</t>
+          <t>s__Veillonella rogosae</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64345.fa</t>
+          <t>even_MAG-GUT5687.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0471612108463902</v>
+        <v>0.05989220913122988</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01781377930814724</v>
+        <v>0.02328464445267805</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1393282056927681</v>
+        <v>0.09851186276681081</v>
       </c>
       <c r="E108" t="n">
-        <v>0.09290812557695138</v>
+        <v>0.0947564465278693</v>
       </c>
       <c r="F108" t="n">
-        <v>0.04284948119326791</v>
+        <v>0.04160579328070001</v>
       </c>
       <c r="G108" t="n">
-        <v>0.191753411448413</v>
+        <v>0.1942062731310164</v>
       </c>
       <c r="H108" t="n">
-        <v>0.006253611142569972</v>
+        <v>0.007797317999980883</v>
       </c>
       <c r="I108" t="n">
-        <v>0.08844553927640478</v>
+        <v>0.09503117491250167</v>
       </c>
       <c r="J108" t="n">
-        <v>0.09273271370227761</v>
+        <v>0.1028710368110074</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03839030649237322</v>
+        <v>0.04352036766952869</v>
       </c>
       <c r="L108" t="n">
-        <v>0.02300090520476073</v>
+        <v>0.02700739149137749</v>
       </c>
       <c r="M108" t="n">
-        <v>0.1145811661371619</v>
+        <v>0.1128075026304115</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09442712756155089</v>
+        <v>0.089827839662763</v>
       </c>
       <c r="O108" t="n">
-        <v>0.01035441641696319</v>
+        <v>0.008880139532124886</v>
       </c>
       <c r="P108" t="n">
-        <v>0.191753411448413</v>
+        <v>0.1942062731310164</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64513.fa</t>
+          <t>even_MAG-GUT64345.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7225,53 +7225,53 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66953.fa</t>
+          <t>even_MAG-GUT64513.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.232528191028616e-14</v>
+        <v>0.0471612108463902</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02094374473675479</v>
+        <v>0.01781377930814724</v>
       </c>
       <c r="D110" t="n">
-        <v>0.07683081068149986</v>
+        <v>0.1393282056927681</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08643930130493692</v>
+        <v>0.09290812557695138</v>
       </c>
       <c r="F110" t="n">
-        <v>0.03467321999323218</v>
+        <v>0.04284948119326791</v>
       </c>
       <c r="G110" t="n">
-        <v>0.177448277573379</v>
+        <v>0.191753411448413</v>
       </c>
       <c r="H110" t="n">
-        <v>0.005469739409285834</v>
+        <v>0.006253611142569972</v>
       </c>
       <c r="I110" t="n">
-        <v>0.09927164525139653</v>
+        <v>0.08844553927640478</v>
       </c>
       <c r="J110" t="n">
-        <v>0.08619685040421783</v>
+        <v>0.09273271370227761</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02437343933686183</v>
+        <v>0.03839030649237322</v>
       </c>
       <c r="L110" t="n">
-        <v>0.03195491557336196</v>
+        <v>0.02300090520476073</v>
       </c>
       <c r="M110" t="n">
-        <v>0.1019397579093836</v>
+        <v>0.1145811661371619</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1008848071727211</v>
+        <v>0.09442712756155089</v>
       </c>
       <c r="O110" t="n">
-        <v>0.1535734906529463</v>
+        <v>0.01035441641696319</v>
       </c>
       <c r="P110" t="n">
-        <v>0.177448277573379</v>
+        <v>0.191753411448413</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -7287,53 +7287,53 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67253.fa</t>
+          <t>even_MAG-GUT66953.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.05832089072592193</v>
+        <v>2.232528191028616e-14</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01249191318622758</v>
+        <v>0.02094374473675479</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0361818067060539</v>
+        <v>0.07683081068149986</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09448645422722839</v>
+        <v>0.08643930130493692</v>
       </c>
       <c r="F111" t="n">
-        <v>0.03558397052526607</v>
+        <v>0.03467321999323218</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1966487177234336</v>
+        <v>0.177448277573379</v>
       </c>
       <c r="H111" t="n">
-        <v>0.009292528242250088</v>
+        <v>0.005469739409285834</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1011418284730947</v>
+        <v>0.09927164525139653</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0940901814233531</v>
+        <v>0.08619685040421783</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0936734546422319</v>
+        <v>0.02437343933686183</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05833907857963765</v>
+        <v>0.03195491557336196</v>
       </c>
       <c r="M111" t="n">
-        <v>0.1123091916430735</v>
+        <v>0.1019397579093836</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08976541883301922</v>
+        <v>0.1008848071727211</v>
       </c>
       <c r="O111" t="n">
-        <v>0.007674565069208489</v>
+        <v>0.1535734906529463</v>
       </c>
       <c r="P111" t="n">
-        <v>0.1966487177234336</v>
+        <v>0.177448277573379</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -7349,53 +7349,53 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67256.fa</t>
+          <t>even_MAG-GUT67253.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.09436664133030835</v>
+        <v>0.05832089072592193</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02221932723834031</v>
+        <v>0.01249191318622758</v>
       </c>
       <c r="D112" t="n">
-        <v>0.04189377119552559</v>
+        <v>0.0361818067060539</v>
       </c>
       <c r="E112" t="n">
-        <v>0.09766276053887417</v>
+        <v>0.09448645422722839</v>
       </c>
       <c r="F112" t="n">
-        <v>0.04664211524098127</v>
+        <v>0.03558397052526607</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1979118317628037</v>
+        <v>0.1966487177234336</v>
       </c>
       <c r="H112" t="n">
-        <v>0.01613606599085354</v>
+        <v>0.009292528242250088</v>
       </c>
       <c r="I112" t="n">
-        <v>0.09403108883422161</v>
+        <v>0.1011418284730947</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1106166832988763</v>
+        <v>0.0940901814233531</v>
       </c>
       <c r="K112" t="n">
-        <v>0.04539827791081253</v>
+        <v>0.0936734546422319</v>
       </c>
       <c r="L112" t="n">
-        <v>0.02205159560451873</v>
+        <v>0.05833907857963765</v>
       </c>
       <c r="M112" t="n">
-        <v>0.1139988991783203</v>
+        <v>0.1123091916430735</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08630645721413496</v>
+        <v>0.08976541883301922</v>
       </c>
       <c r="O112" t="n">
-        <v>0.01076448466142865</v>
+        <v>0.007674565069208489</v>
       </c>
       <c r="P112" t="n">
-        <v>0.1979118317628037</v>
+        <v>0.1966487177234336</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -7411,53 +7411,53 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67799.fa</t>
+          <t>even_MAG-GUT67256.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.227628798033133e-14</v>
+        <v>0.09436664133030835</v>
       </c>
       <c r="C113" t="n">
-        <v>0.008959770193773583</v>
+        <v>0.02221932723834031</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03479098543434492</v>
+        <v>0.04189377119552559</v>
       </c>
       <c r="E113" t="n">
-        <v>0.08840189131099201</v>
+        <v>0.09766276053887417</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03798547841159716</v>
+        <v>0.04664211524098127</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1845818577367463</v>
+        <v>0.1979118317628037</v>
       </c>
       <c r="H113" t="n">
-        <v>0.005075505984946674</v>
+        <v>0.01613606599085354</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1029662475776985</v>
+        <v>0.09403108883422161</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1016587806190705</v>
+        <v>0.1106166832988763</v>
       </c>
       <c r="K113" t="n">
-        <v>0.01974132724553553</v>
+        <v>0.04539827791081253</v>
       </c>
       <c r="L113" t="n">
-        <v>0.01837599465345036</v>
+        <v>0.02205159560451873</v>
       </c>
       <c r="M113" t="n">
-        <v>0.1044857966340984</v>
+        <v>0.1139988991783203</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07633936733167832</v>
+        <v>0.08630645721413496</v>
       </c>
       <c r="O113" t="n">
-        <v>0.2166369968660455</v>
+        <v>0.01076448466142865</v>
       </c>
       <c r="P113" t="n">
-        <v>0.2166369968660455</v>
+        <v>0.1979118317628037</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -7473,177 +7473,177 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68086.fa</t>
+          <t>even_MAG-GUT67799.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.28046678504202e-14</v>
+        <v>2.227628798033133e-14</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004857226412565515</v>
+        <v>0.008959770193773583</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01389743624456784</v>
+        <v>0.03479098543434492</v>
       </c>
       <c r="E114" t="n">
-        <v>0.05434451912751299</v>
+        <v>0.08840189131099201</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02174715159958375</v>
+        <v>0.03798547841159716</v>
       </c>
       <c r="G114" t="n">
-        <v>0.11643632446441</v>
+        <v>0.1845818577367463</v>
       </c>
       <c r="H114" t="n">
-        <v>0.002620550011549165</v>
+        <v>0.005075505984946674</v>
       </c>
       <c r="I114" t="n">
-        <v>0.06329709081664311</v>
+        <v>0.1029662475776985</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06289892720912087</v>
+        <v>0.1016587806190705</v>
       </c>
       <c r="K114" t="n">
-        <v>0.01700928669273165</v>
+        <v>0.01974132724553553</v>
       </c>
       <c r="L114" t="n">
-        <v>0.02444573155360664</v>
+        <v>0.01837599465345036</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0654807773042986</v>
+        <v>0.1044857966340984</v>
       </c>
       <c r="N114" t="n">
-        <v>0.05105280012228488</v>
+        <v>0.07633936733167832</v>
       </c>
       <c r="O114" t="n">
-        <v>0.5019121784411021</v>
+        <v>0.2166369968660455</v>
       </c>
       <c r="P114" t="n">
-        <v>0.5019121784411021</v>
+        <v>0.2166369968660455</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>s__Veillonella tobetsuensis</t>
+          <t>s__Veillonella atypica</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>s__Veillonella tobetsuensis</t>
+          <t>s__Veillonella atypica</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68216.fa</t>
+          <t>even_MAG-GUT68086.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.221128294648856e-14</v>
+        <v>2.28046678504202e-14</v>
       </c>
       <c r="C115" t="n">
-        <v>0.007228889459427532</v>
+        <v>0.004857226412565515</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1969091758474675</v>
+        <v>0.01389743624456784</v>
       </c>
       <c r="E115" t="n">
-        <v>0.09267251108441295</v>
+        <v>0.05434451912751299</v>
       </c>
       <c r="F115" t="n">
-        <v>0.04816232184169533</v>
+        <v>0.02174715159958375</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1937750272208694</v>
+        <v>0.11643632446441</v>
       </c>
       <c r="H115" t="n">
-        <v>0.009637913375947047</v>
+        <v>0.002620550011549165</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1065638376689571</v>
+        <v>0.06329709081664311</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1063529493602074</v>
+        <v>0.06289892720912087</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03117054285984544</v>
+        <v>0.01700928669273165</v>
       </c>
       <c r="L115" t="n">
-        <v>0.01729371012175959</v>
+        <v>0.02444573155360664</v>
       </c>
       <c r="M115" t="n">
-        <v>0.1021434542382523</v>
+        <v>0.0654807773042986</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08577766626730442</v>
+        <v>0.05105280012228488</v>
       </c>
       <c r="O115" t="n">
-        <v>0.002312000653831622</v>
+        <v>0.5019121784411021</v>
       </c>
       <c r="P115" t="n">
-        <v>0.1969091758474675</v>
+        <v>0.5019121784411021</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>s__Veillonella atypica</t>
+          <t>s__Veillonella tobetsuensis</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>s__Veillonella atypica</t>
+          <t>s__Veillonella tobetsuensis</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68260.fa</t>
+          <t>even_MAG-GUT68216.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.231555650494227e-14</v>
+        <v>2.221128294648856e-14</v>
       </c>
       <c r="C116" t="n">
-        <v>0.00369128990988024</v>
+        <v>0.007228889459427532</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09160652889423491</v>
+        <v>0.1969091758474675</v>
       </c>
       <c r="E116" t="n">
-        <v>0.09384802806072307</v>
+        <v>0.09267251108441295</v>
       </c>
       <c r="F116" t="n">
-        <v>0.03822430834555714</v>
+        <v>0.04816232184169533</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1965295931376295</v>
+        <v>0.1937750272208694</v>
       </c>
       <c r="H116" t="n">
-        <v>0.006893524109430331</v>
+        <v>0.009637913375947047</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1042673770650807</v>
+        <v>0.1065638376689571</v>
       </c>
       <c r="J116" t="n">
-        <v>0.108121747411816</v>
+        <v>0.1063529493602074</v>
       </c>
       <c r="K116" t="n">
-        <v>0.01978068556125357</v>
+        <v>0.03117054285984544</v>
       </c>
       <c r="L116" t="n">
-        <v>0.02546741393472033</v>
+        <v>0.01729371012175959</v>
       </c>
       <c r="M116" t="n">
-        <v>0.1094417049842973</v>
+        <v>0.1021434542382523</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08323265633446199</v>
+        <v>0.08577766626730442</v>
       </c>
       <c r="O116" t="n">
-        <v>0.1188951422508928</v>
+        <v>0.002312000653831622</v>
       </c>
       <c r="P116" t="n">
-        <v>0.1965295931376295</v>
+        <v>0.1969091758474675</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -7659,53 +7659,53 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68570.fa</t>
+          <t>even_MAG-GUT68260.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.08217037514187428</v>
+        <v>2.231555650494227e-14</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01632735114548695</v>
+        <v>0.00369128990988024</v>
       </c>
       <c r="D117" t="n">
-        <v>0.009401830979335737</v>
+        <v>0.09160652889423491</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09691083796420209</v>
+        <v>0.09384802806072307</v>
       </c>
       <c r="F117" t="n">
-        <v>0.04718747870789392</v>
+        <v>0.03822430834555714</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1959690904826085</v>
+        <v>0.1965295931376295</v>
       </c>
       <c r="H117" t="n">
-        <v>0.01208149023385189</v>
+        <v>0.006893524109430331</v>
       </c>
       <c r="I117" t="n">
-        <v>0.09049998328355367</v>
+        <v>0.1042673770650807</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1040307091296672</v>
+        <v>0.108121747411816</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03743787806402268</v>
+        <v>0.01978068556125357</v>
       </c>
       <c r="L117" t="n">
-        <v>0.03915861940238993</v>
+        <v>0.02546741393472033</v>
       </c>
       <c r="M117" t="n">
-        <v>0.1135522037532449</v>
+        <v>0.1094417049842973</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09548894663053338</v>
+        <v>0.08323265633446199</v>
       </c>
       <c r="O117" t="n">
-        <v>0.05978320508133483</v>
+        <v>0.1188951422508928</v>
       </c>
       <c r="P117" t="n">
-        <v>0.1959690904826085</v>
+        <v>0.1965295931376295</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -7721,53 +7721,53 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68726.fa</t>
+          <t>even_MAG-GUT68570.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2.229237834892155e-14</v>
+        <v>0.08217037514187428</v>
       </c>
       <c r="C118" t="n">
-        <v>0.008479791803144083</v>
+        <v>0.01632735114548695</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0084243461789257</v>
+        <v>0.009401830979335737</v>
       </c>
       <c r="E118" t="n">
-        <v>0.08779783173287782</v>
+        <v>0.09691083796420209</v>
       </c>
       <c r="F118" t="n">
-        <v>0.03960825346787731</v>
+        <v>0.04718747870789392</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1837903878704809</v>
+        <v>0.1959690904826085</v>
       </c>
       <c r="H118" t="n">
-        <v>0.01150433330395483</v>
+        <v>0.01208149023385189</v>
       </c>
       <c r="I118" t="n">
-        <v>0.08040020133078139</v>
+        <v>0.09049998328355367</v>
       </c>
       <c r="J118" t="n">
-        <v>0.09351131350192339</v>
+        <v>0.1040307091296672</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04181015387455916</v>
+        <v>0.03743787806402268</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03423861224380349</v>
+        <v>0.03915861940238993</v>
       </c>
       <c r="M118" t="n">
-        <v>0.1030314505755987</v>
+        <v>0.1135522037532449</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08947248143731466</v>
+        <v>0.09548894663053338</v>
       </c>
       <c r="O118" t="n">
-        <v>0.2179308426787363</v>
+        <v>0.05978320508133483</v>
       </c>
       <c r="P118" t="n">
-        <v>0.2179308426787363</v>
+        <v>0.1959690904826085</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -7783,53 +7783,53 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68810.fa</t>
+          <t>even_MAG-GUT68726.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.06865788489529463</v>
+        <v>2.229237834892155e-14</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04554675595316748</v>
+        <v>0.008479791803144083</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02918799701312764</v>
+        <v>0.0084243461789257</v>
       </c>
       <c r="E119" t="n">
-        <v>0.09518234060141169</v>
+        <v>0.08779783173287782</v>
       </c>
       <c r="F119" t="n">
-        <v>0.04337325317961527</v>
+        <v>0.03960825346787731</v>
       </c>
       <c r="G119" t="n">
-        <v>0.191701903221428</v>
+        <v>0.1837903878704809</v>
       </c>
       <c r="H119" t="n">
-        <v>0.008628286462180489</v>
+        <v>0.01150433330395483</v>
       </c>
       <c r="I119" t="n">
-        <v>0.09440739576003779</v>
+        <v>0.08040020133078139</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1060667558371394</v>
+        <v>0.09351131350192339</v>
       </c>
       <c r="K119" t="n">
-        <v>0.05752131416628313</v>
+        <v>0.04181015387455916</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03287555474436996</v>
+        <v>0.03423861224380349</v>
       </c>
       <c r="M119" t="n">
-        <v>0.1109329880092094</v>
+        <v>0.1030314505755987</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09207681419034452</v>
+        <v>0.08947248143731466</v>
       </c>
       <c r="O119" t="n">
-        <v>0.02384075596639051</v>
+        <v>0.2179308426787363</v>
       </c>
       <c r="P119" t="n">
-        <v>0.191701903221428</v>
+        <v>0.2179308426787363</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -7845,53 +7845,53 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68872.fa</t>
+          <t>even_MAG-GUT68810.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.05545696882464892</v>
+        <v>0.06865788489529463</v>
       </c>
       <c r="C120" t="n">
-        <v>0.014997059846658</v>
+        <v>0.04554675595316748</v>
       </c>
       <c r="D120" t="n">
-        <v>0.04727945873549023</v>
+        <v>0.02918799701312764</v>
       </c>
       <c r="E120" t="n">
-        <v>0.09358451593252141</v>
+        <v>0.09518234060141169</v>
       </c>
       <c r="F120" t="n">
-        <v>0.03724766104713826</v>
+        <v>0.04337325317961527</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1913134463174316</v>
+        <v>0.191701903221428</v>
       </c>
       <c r="H120" t="n">
-        <v>0.007255318404613947</v>
+        <v>0.008628286462180489</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1077810636144552</v>
+        <v>0.09440739576003779</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1003757036802088</v>
+        <v>0.1060667558371394</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03304906710246248</v>
+        <v>0.05752131416628313</v>
       </c>
       <c r="L120" t="n">
-        <v>0.03537887781289464</v>
+        <v>0.03287555474436996</v>
       </c>
       <c r="M120" t="n">
-        <v>0.1108107869925237</v>
+        <v>0.1109329880092094</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1035314893193097</v>
+        <v>0.09207681419034452</v>
       </c>
       <c r="O120" t="n">
-        <v>0.06193858236964315</v>
+        <v>0.02384075596639051</v>
       </c>
       <c r="P120" t="n">
-        <v>0.1913134463174316</v>
+        <v>0.191701903221428</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -7907,53 +7907,53 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69096.fa</t>
+          <t>even_MAG-GUT68872.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.05679146037488494</v>
+        <v>0.05545696882464892</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01772692962248041</v>
+        <v>0.014997059846658</v>
       </c>
       <c r="D121" t="n">
-        <v>0.05298702902611011</v>
+        <v>0.04727945873549023</v>
       </c>
       <c r="E121" t="n">
-        <v>0.09382683718497026</v>
+        <v>0.09358451593252141</v>
       </c>
       <c r="F121" t="n">
-        <v>0.04318603549977792</v>
+        <v>0.03724766104713826</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1903548873237691</v>
+        <v>0.1913134463174316</v>
       </c>
       <c r="H121" t="n">
-        <v>0.00728333684409721</v>
+        <v>0.007255318404613947</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0871899082830084</v>
+        <v>0.1077810636144552</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1068120790794798</v>
+        <v>0.1003757036802088</v>
       </c>
       <c r="K121" t="n">
-        <v>0.07211844766021752</v>
+        <v>0.03304906710246248</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03480118101864787</v>
+        <v>0.03537887781289464</v>
       </c>
       <c r="M121" t="n">
-        <v>0.1066054992130842</v>
+        <v>0.1108107869925237</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1166168839906157</v>
+        <v>0.1035314893193097</v>
       </c>
       <c r="O121" t="n">
-        <v>0.01369948487885668</v>
+        <v>0.06193858236964315</v>
       </c>
       <c r="P121" t="n">
-        <v>0.1903548873237691</v>
+        <v>0.1913134463174316</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -7969,53 +7969,53 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69113.fa</t>
+          <t>even_MAG-GUT69096.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2.222983233940369e-14</v>
+        <v>0.05679146037488494</v>
       </c>
       <c r="C122" t="n">
-        <v>0.007204783828560733</v>
+        <v>0.01772692962248041</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0897047880568129</v>
+        <v>0.05298702902611011</v>
       </c>
       <c r="E122" t="n">
-        <v>0.09156347273611495</v>
+        <v>0.09382683718497026</v>
       </c>
       <c r="F122" t="n">
-        <v>0.03711408947118774</v>
+        <v>0.04318603549977792</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1912792295317169</v>
+        <v>0.1903548873237691</v>
       </c>
       <c r="H122" t="n">
-        <v>0.003800487255889439</v>
+        <v>0.00728333684409721</v>
       </c>
       <c r="I122" t="n">
-        <v>0.102449116864622</v>
+        <v>0.0871899082830084</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1035932742192332</v>
+        <v>0.1068120790794798</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03099193146395896</v>
+        <v>0.07211844766021752</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0261421187148141</v>
+        <v>0.03480118101864787</v>
       </c>
       <c r="M122" t="n">
-        <v>0.1049939285930359</v>
+        <v>0.1066054992130842</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07735901991431708</v>
+        <v>0.1166168839906157</v>
       </c>
       <c r="O122" t="n">
-        <v>0.1338037593497139</v>
+        <v>0.01369948487885668</v>
       </c>
       <c r="P122" t="n">
-        <v>0.1912792295317169</v>
+        <v>0.1903548873237691</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -8031,53 +8031,53 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69123.fa</t>
+          <t>even_MAG-GUT69113.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.06896495173897202</v>
+        <v>2.222983233940369e-14</v>
       </c>
       <c r="C123" t="n">
-        <v>0.006884622051904901</v>
+        <v>0.007204783828560733</v>
       </c>
       <c r="D123" t="n">
-        <v>0.07257825298835933</v>
+        <v>0.0897047880568129</v>
       </c>
       <c r="E123" t="n">
-        <v>0.09522899939655473</v>
+        <v>0.09156347273611495</v>
       </c>
       <c r="F123" t="n">
-        <v>0.04125150918942252</v>
+        <v>0.03711408947118774</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1977580860047867</v>
+        <v>0.1912792295317169</v>
       </c>
       <c r="H123" t="n">
-        <v>0.03079381730449082</v>
+        <v>0.003800487255889439</v>
       </c>
       <c r="I123" t="n">
-        <v>0.09877529775199952</v>
+        <v>0.102449116864622</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1011134325959354</v>
+        <v>0.1035932742192332</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04007681517584214</v>
+        <v>0.03099193146395896</v>
       </c>
       <c r="L123" t="n">
-        <v>0.02988207834885719</v>
+        <v>0.0261421187148141</v>
       </c>
       <c r="M123" t="n">
-        <v>0.110489549803581</v>
+        <v>0.1049939285930359</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08221701371536448</v>
+        <v>0.07735901991431708</v>
       </c>
       <c r="O123" t="n">
-        <v>0.02398557393392923</v>
+        <v>0.1338037593497139</v>
       </c>
       <c r="P123" t="n">
-        <v>0.1977580860047867</v>
+        <v>0.1912792295317169</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -8093,53 +8093,53 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69144.fa</t>
+          <t>even_MAG-GUT69123.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.09446332560855666</v>
+        <v>0.06896495173897202</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01368234252720431</v>
+        <v>0.006884622051904901</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01364977200900722</v>
+        <v>0.07257825298835933</v>
       </c>
       <c r="E124" t="n">
-        <v>0.09810590247797783</v>
+        <v>0.09522899939655473</v>
       </c>
       <c r="F124" t="n">
-        <v>0.04600192357646448</v>
+        <v>0.04125150918942252</v>
       </c>
       <c r="G124" t="n">
-        <v>0.2022124778329858</v>
+        <v>0.1977580860047867</v>
       </c>
       <c r="H124" t="n">
-        <v>0.01960766272610775</v>
+        <v>0.03079381730449082</v>
       </c>
       <c r="I124" t="n">
-        <v>0.09768839015936306</v>
+        <v>0.09877529775199952</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1034316559829415</v>
+        <v>0.1011134325959354</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03228023427524657</v>
+        <v>0.04007681517584214</v>
       </c>
       <c r="L124" t="n">
-        <v>0.02792821938527697</v>
+        <v>0.02988207834885719</v>
       </c>
       <c r="M124" t="n">
-        <v>0.1125809692306903</v>
+        <v>0.110489549803581</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1047979042247135</v>
+        <v>0.08221701371536448</v>
       </c>
       <c r="O124" t="n">
-        <v>0.03356921998346405</v>
+        <v>0.02398557393392923</v>
       </c>
       <c r="P124" t="n">
-        <v>0.2022124778329858</v>
+        <v>0.1977580860047867</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -8155,53 +8155,53 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69198.fa</t>
+          <t>even_MAG-GUT69144.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.08784946265694039</v>
+        <v>0.09446332560855666</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01101025795896657</v>
+        <v>0.01368234252720431</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0198060532146566</v>
+        <v>0.01364977200900722</v>
       </c>
       <c r="E125" t="n">
-        <v>0.09737875055768967</v>
+        <v>0.09810590247797783</v>
       </c>
       <c r="F125" t="n">
-        <v>0.04423278929201828</v>
+        <v>0.04600192357646448</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1977545594580332</v>
+        <v>0.2022124778329858</v>
       </c>
       <c r="H125" t="n">
-        <v>0.01526629014424194</v>
+        <v>0.01960766272610775</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1034815998145782</v>
+        <v>0.09768839015936306</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1077839810600148</v>
+        <v>0.1034316559829415</v>
       </c>
       <c r="K125" t="n">
-        <v>0.05155915908439585</v>
+        <v>0.03228023427524657</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0356228189776318</v>
+        <v>0.02792821938527697</v>
       </c>
       <c r="M125" t="n">
-        <v>0.1149068378914068</v>
+        <v>0.1125809692306903</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1042457643588947</v>
+        <v>0.1047979042247135</v>
       </c>
       <c r="O125" t="n">
-        <v>0.009101675530531105</v>
+        <v>0.03356921998346405</v>
       </c>
       <c r="P125" t="n">
-        <v>0.1977545594580332</v>
+        <v>0.2022124778329858</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -8217,53 +8217,53 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69367.fa</t>
+          <t>even_MAG-GUT69198.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2.230248157453953e-14</v>
+        <v>0.08784946265694039</v>
       </c>
       <c r="C126" t="n">
-        <v>0.006854002183548083</v>
+        <v>0.01101025795896657</v>
       </c>
       <c r="D126" t="n">
-        <v>0.08796578776227629</v>
+        <v>0.0198060532146566</v>
       </c>
       <c r="E126" t="n">
-        <v>0.08692259070352386</v>
+        <v>0.09737875055768967</v>
       </c>
       <c r="F126" t="n">
-        <v>0.03636996902428866</v>
+        <v>0.04423278929201828</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1820332175629546</v>
+        <v>0.1977545594580332</v>
       </c>
       <c r="H126" t="n">
-        <v>0.007052843657697996</v>
+        <v>0.01526629014424194</v>
       </c>
       <c r="I126" t="n">
-        <v>0.09741417903798125</v>
+        <v>0.1034815998145782</v>
       </c>
       <c r="J126" t="n">
-        <v>0.09079292058572022</v>
+        <v>0.1077839810600148</v>
       </c>
       <c r="K126" t="n">
-        <v>0.01869285208474587</v>
+        <v>0.05155915908439585</v>
       </c>
       <c r="L126" t="n">
-        <v>0.02320655890913876</v>
+        <v>0.0356228189776318</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1011172727207882</v>
+        <v>0.1149068378914068</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0817789707184241</v>
+        <v>0.1042457643588947</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1797988350488898</v>
+        <v>0.009101675530531105</v>
       </c>
       <c r="P126" t="n">
-        <v>0.1820332175629546</v>
+        <v>0.1977545594580332</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -8279,53 +8279,53 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69378.fa</t>
+          <t>even_MAG-GUT69367.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.22394348202862e-14</v>
+        <v>2.230248157453953e-14</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01547832902661637</v>
+        <v>0.006854002183548083</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1139055383083357</v>
+        <v>0.08796578776227629</v>
       </c>
       <c r="E127" t="n">
-        <v>0.09116572163800665</v>
+        <v>0.08692259070352386</v>
       </c>
       <c r="F127" t="n">
-        <v>0.03359862677872224</v>
+        <v>0.03636996902428866</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1928387519815399</v>
+        <v>0.1820332175629546</v>
       </c>
       <c r="H127" t="n">
-        <v>0.004557851007554572</v>
+        <v>0.007052843657697996</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1026528588946735</v>
+        <v>0.09741417903798125</v>
       </c>
       <c r="J127" t="n">
-        <v>0.08936705221142528</v>
+        <v>0.09079292058572022</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0319505574824998</v>
+        <v>0.01869285208474587</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0229745111456751</v>
+        <v>0.02320655890913876</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1056635062981644</v>
+        <v>0.1011172727207882</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08519431492677201</v>
+        <v>0.0817789707184241</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1106523802999922</v>
+        <v>0.1797988350488898</v>
       </c>
       <c r="P127" t="n">
-        <v>0.1928387519815399</v>
+        <v>0.1820332175629546</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -8341,53 +8341,53 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69417.fa</t>
+          <t>even_MAG-GUT69378.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2.232329970251819e-14</v>
+        <v>2.22394348202862e-14</v>
       </c>
       <c r="C128" t="n">
-        <v>0.003756474341667645</v>
+        <v>0.01547832902661637</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2273615133655316</v>
+        <v>0.1139055383083357</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08584931916408393</v>
+        <v>0.09116572163800665</v>
       </c>
       <c r="F128" t="n">
-        <v>0.03973394219085786</v>
+        <v>0.03359862677872224</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1799909236454968</v>
+        <v>0.1928387519815399</v>
       </c>
       <c r="H128" t="n">
-        <v>0.01965864148349934</v>
+        <v>0.004557851007554572</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1038754088518209</v>
+        <v>0.1026528588946735</v>
       </c>
       <c r="J128" t="n">
-        <v>0.09161880041537591</v>
+        <v>0.08936705221142528</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04414804320200984</v>
+        <v>0.0319505574824998</v>
       </c>
       <c r="L128" t="n">
-        <v>0.01386710555663766</v>
+        <v>0.0229745111456751</v>
       </c>
       <c r="M128" t="n">
-        <v>0.102479432055572</v>
+        <v>0.1056635062981644</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08749787314435542</v>
+        <v>0.08519431492677201</v>
       </c>
       <c r="O128" t="n">
-        <v>0.000162522583068773</v>
+        <v>0.1106523802999922</v>
       </c>
       <c r="P128" t="n">
-        <v>0.2273615133655316</v>
+        <v>0.1928387519815399</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -8403,53 +8403,53 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69483.fa</t>
+          <t>even_MAG-GUT69417.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.07266010863589377</v>
+        <v>2.232329970251819e-14</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02409288210196053</v>
+        <v>0.003756474341667645</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01380841269488078</v>
+        <v>0.2273615133655316</v>
       </c>
       <c r="E129" t="n">
-        <v>0.09589788911713854</v>
+        <v>0.08584931916408393</v>
       </c>
       <c r="F129" t="n">
-        <v>0.04291464859106217</v>
+        <v>0.03973394219085786</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1953391916374465</v>
+        <v>0.1799909236454968</v>
       </c>
       <c r="H129" t="n">
-        <v>0.01119749977773206</v>
+        <v>0.01965864148349934</v>
       </c>
       <c r="I129" t="n">
-        <v>0.09558568197021919</v>
+        <v>0.1038754088518209</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1039284264754763</v>
+        <v>0.09161880041537591</v>
       </c>
       <c r="K129" t="n">
-        <v>0.06598813009292658</v>
+        <v>0.04414804320200984</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05532551820349833</v>
+        <v>0.01386710555663766</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1124578266712797</v>
+        <v>0.102479432055572</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09801985550191819</v>
+        <v>0.08749787314435542</v>
       </c>
       <c r="O129" t="n">
-        <v>0.01278392852856726</v>
+        <v>0.000162522583068773</v>
       </c>
       <c r="P129" t="n">
-        <v>0.1953391916374465</v>
+        <v>0.2273615133655316</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -8465,53 +8465,53 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69551.fa</t>
+          <t>even_MAG-GUT69483.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.08973069505109033</v>
+        <v>0.07266010863589377</v>
       </c>
       <c r="C130" t="n">
-        <v>0.02400715520765747</v>
+        <v>0.02409288210196053</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01531066292262351</v>
+        <v>0.01380841269488078</v>
       </c>
       <c r="E130" t="n">
-        <v>0.09763679769454739</v>
+        <v>0.09589788911713854</v>
       </c>
       <c r="F130" t="n">
-        <v>0.04425912294635852</v>
+        <v>0.04291464859106217</v>
       </c>
       <c r="G130" t="n">
-        <v>0.2003134181654445</v>
+        <v>0.1953391916374465</v>
       </c>
       <c r="H130" t="n">
-        <v>0.01394096781810606</v>
+        <v>0.01119749977773206</v>
       </c>
       <c r="I130" t="n">
-        <v>0.09157987733877944</v>
+        <v>0.09558568197021919</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1127988922109167</v>
+        <v>0.1039284264754763</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05471327570444787</v>
+        <v>0.06598813009292658</v>
       </c>
       <c r="L130" t="n">
-        <v>0.03288644099329883</v>
+        <v>0.05532551820349833</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1062802487016431</v>
+        <v>0.1124578266712797</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09394393414768205</v>
+        <v>0.09801985550191819</v>
       </c>
       <c r="O130" t="n">
-        <v>0.02259851109740418</v>
+        <v>0.01278392852856726</v>
       </c>
       <c r="P130" t="n">
-        <v>0.2003134181654445</v>
+        <v>0.1953391916374465</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -8527,53 +8527,53 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7088.fa</t>
+          <t>even_MAG-GUT69551.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.08682543750679822</v>
+        <v>0.08973069505109033</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01832387410076452</v>
+        <v>0.02400715520765747</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0474090561841407</v>
+        <v>0.01531066292262351</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09711702862434589</v>
+        <v>0.09763679769454739</v>
       </c>
       <c r="F131" t="n">
-        <v>0.04636744542414664</v>
+        <v>0.04425912294635852</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1947529603458814</v>
+        <v>0.2003134181654445</v>
       </c>
       <c r="H131" t="n">
-        <v>0.02406600672699274</v>
+        <v>0.01394096781810606</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1033322969279966</v>
+        <v>0.09157987733877944</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1031353169894258</v>
+        <v>0.1127988922109167</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04088407526612112</v>
+        <v>0.05471327570444787</v>
       </c>
       <c r="L131" t="n">
-        <v>0.01811474375660838</v>
+        <v>0.03288644099329883</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1124857603139385</v>
+        <v>0.1062802487016431</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08981378065301368</v>
+        <v>0.09394393414768205</v>
       </c>
       <c r="O131" t="n">
-        <v>0.01737221717982586</v>
+        <v>0.02259851109740418</v>
       </c>
       <c r="P131" t="n">
-        <v>0.1947529603458814</v>
+        <v>0.2003134181654445</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -8589,53 +8589,53 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7095.fa</t>
+          <t>even_MAG-GUT7088.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.05818496390789864</v>
+        <v>0.08682543750679822</v>
       </c>
       <c r="C132" t="n">
-        <v>0.02486483321785644</v>
+        <v>0.01832387410076452</v>
       </c>
       <c r="D132" t="n">
-        <v>0.09557326674021199</v>
+        <v>0.0474090561841407</v>
       </c>
       <c r="E132" t="n">
-        <v>0.09392937042619223</v>
+        <v>0.09711702862434589</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04149433740166947</v>
+        <v>0.04636744542414664</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1876052799872095</v>
+        <v>0.1947529603458814</v>
       </c>
       <c r="H132" t="n">
-        <v>0.008457342019192682</v>
+        <v>0.02406600672699274</v>
       </c>
       <c r="I132" t="n">
-        <v>0.09884015493011666</v>
+        <v>0.1033322969279966</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1019964970361246</v>
+        <v>0.1031353169894258</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04060084130758911</v>
+        <v>0.04088407526612112</v>
       </c>
       <c r="L132" t="n">
-        <v>0.03137683879420358</v>
+        <v>0.01811474375660838</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1099805372580905</v>
+        <v>0.1124857603139385</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0961357802796184</v>
+        <v>0.08981378065301368</v>
       </c>
       <c r="O132" t="n">
-        <v>0.01095995669402587</v>
+        <v>0.01737221717982586</v>
       </c>
       <c r="P132" t="n">
-        <v>0.1876052799872095</v>
+        <v>0.1947529603458814</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -8651,53 +8651,53 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7099.fa</t>
+          <t>even_MAG-GUT7095.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.06705539484257841</v>
+        <v>0.05818496390789864</v>
       </c>
       <c r="C133" t="n">
-        <v>0.05104683117252713</v>
+        <v>0.02486483321785644</v>
       </c>
       <c r="D133" t="n">
-        <v>0.05684792816339558</v>
+        <v>0.09557326674021199</v>
       </c>
       <c r="E133" t="n">
-        <v>0.09470627329440487</v>
+        <v>0.09392937042619223</v>
       </c>
       <c r="F133" t="n">
-        <v>0.04518487781511164</v>
+        <v>0.04149433740166947</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1930025345702411</v>
+        <v>0.1876052799872095</v>
       </c>
       <c r="H133" t="n">
-        <v>0.007783748806592788</v>
+        <v>0.008457342019192682</v>
       </c>
       <c r="I133" t="n">
-        <v>0.09040779365374824</v>
+        <v>0.09884015493011666</v>
       </c>
       <c r="J133" t="n">
-        <v>0.09442543431149292</v>
+        <v>0.1019964970361246</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05219374068070785</v>
+        <v>0.04060084130758911</v>
       </c>
       <c r="L133" t="n">
-        <v>0.03077574688214698</v>
+        <v>0.03137683879420358</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1095474177272383</v>
+        <v>0.1099805372580905</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09396636162678153</v>
+        <v>0.0961357802796184</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0130559164530327</v>
+        <v>0.01095995669402587</v>
       </c>
       <c r="P133" t="n">
-        <v>0.1930025345702411</v>
+        <v>0.1876052799872095</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -8713,53 +8713,53 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7105.fa</t>
+          <t>even_MAG-GUT7099.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.08676045711908303</v>
+        <v>0.06705539484257841</v>
       </c>
       <c r="C134" t="n">
-        <v>0.02368011742861678</v>
+        <v>0.05104683117252713</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02416792880846901</v>
+        <v>0.05684792816339558</v>
       </c>
       <c r="E134" t="n">
-        <v>0.09690447447581492</v>
+        <v>0.09470627329440487</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0431431850706835</v>
+        <v>0.04518487781511164</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1917350919515227</v>
+        <v>0.1930025345702411</v>
       </c>
       <c r="H134" t="n">
-        <v>0.01640213973682089</v>
+        <v>0.007783748806592788</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1051779853381583</v>
+        <v>0.09040779365374824</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1026288643346671</v>
+        <v>0.09442543431149292</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05188665547843561</v>
+        <v>0.05219374068070785</v>
       </c>
       <c r="L134" t="n">
-        <v>0.02654770699239517</v>
+        <v>0.03077574688214698</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1128674734964448</v>
+        <v>0.1095474177272383</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09374496189207916</v>
+        <v>0.09396636162678153</v>
       </c>
       <c r="O134" t="n">
-        <v>0.02435295787680914</v>
+        <v>0.0130559164530327</v>
       </c>
       <c r="P134" t="n">
-        <v>0.1917350919515227</v>
+        <v>0.1930025345702411</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -8775,53 +8775,53 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7112.fa</t>
+          <t>even_MAG-GUT7105.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.06705539484257841</v>
+        <v>0.08676045711908303</v>
       </c>
       <c r="C135" t="n">
-        <v>0.05104683117252713</v>
+        <v>0.02368011742861678</v>
       </c>
       <c r="D135" t="n">
-        <v>0.05684792816339558</v>
+        <v>0.02416792880846901</v>
       </c>
       <c r="E135" t="n">
-        <v>0.09470627329440487</v>
+        <v>0.09690447447581492</v>
       </c>
       <c r="F135" t="n">
-        <v>0.04518487781511164</v>
+        <v>0.0431431850706835</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1930025345702411</v>
+        <v>0.1917350919515227</v>
       </c>
       <c r="H135" t="n">
-        <v>0.007783748806592788</v>
+        <v>0.01640213973682089</v>
       </c>
       <c r="I135" t="n">
-        <v>0.09040779365374824</v>
+        <v>0.1051779853381583</v>
       </c>
       <c r="J135" t="n">
-        <v>0.09442543431149292</v>
+        <v>0.1026288643346671</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05219374068070785</v>
+        <v>0.05188665547843561</v>
       </c>
       <c r="L135" t="n">
-        <v>0.03077574688214698</v>
+        <v>0.02654770699239517</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1095474177272383</v>
+        <v>0.1128674734964448</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09396636162678153</v>
+        <v>0.09374496189207916</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0130559164530327</v>
+        <v>0.02435295787680914</v>
       </c>
       <c r="P135" t="n">
-        <v>0.1930025345702411</v>
+        <v>0.1917350919515227</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -8837,53 +8837,53 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7120.fa</t>
+          <t>even_MAG-GUT7112.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.05442584603344258</v>
+        <v>0.06705539484257841</v>
       </c>
       <c r="C136" t="n">
-        <v>0.04325995559833298</v>
+        <v>0.05104683117252713</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07840503383408375</v>
+        <v>0.05684792816339558</v>
       </c>
       <c r="E136" t="n">
-        <v>0.09329148701547264</v>
+        <v>0.09470627329440487</v>
       </c>
       <c r="F136" t="n">
-        <v>0.04404449107206568</v>
+        <v>0.04518487781511164</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1887415434114061</v>
+        <v>0.1930025345702411</v>
       </c>
       <c r="H136" t="n">
-        <v>0.006611125042500269</v>
+        <v>0.007783748806592788</v>
       </c>
       <c r="I136" t="n">
-        <v>0.09435993298014966</v>
+        <v>0.09040779365374824</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0981898848954284</v>
+        <v>0.09442543431149292</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05047168948955745</v>
+        <v>0.05219374068070785</v>
       </c>
       <c r="L136" t="n">
-        <v>0.02019197123750533</v>
+        <v>0.03077574688214698</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1066759684261884</v>
+        <v>0.1095474177272383</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1103903136961069</v>
+        <v>0.09396636162678153</v>
       </c>
       <c r="O136" t="n">
-        <v>0.01094075726775997</v>
+        <v>0.0130559164530327</v>
       </c>
       <c r="P136" t="n">
-        <v>0.1887415434114061</v>
+        <v>0.1930025345702411</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -8899,177 +8899,177 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7132.fa</t>
+          <t>even_MAG-GUT7120.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2.266470795735964e-14</v>
+        <v>0.05442584603344258</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01012017047114528</v>
+        <v>0.04325995559833298</v>
       </c>
       <c r="D137" t="n">
-        <v>0.003328856191239816</v>
+        <v>0.07840503383408375</v>
       </c>
       <c r="E137" t="n">
-        <v>0.06412589105560386</v>
+        <v>0.09329148701547264</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02529385501826421</v>
+        <v>0.04404449107206568</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1374120321952725</v>
+        <v>0.1887415434114061</v>
       </c>
       <c r="H137" t="n">
-        <v>0.008324597675012806</v>
+        <v>0.006611125042500269</v>
       </c>
       <c r="I137" t="n">
-        <v>0.06535873163184146</v>
+        <v>0.09435993298014966</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06773776607633572</v>
+        <v>0.0981898848954284</v>
       </c>
       <c r="K137" t="n">
-        <v>0.02518626251194747</v>
+        <v>0.05047168948955745</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0165387176018415</v>
+        <v>0.02019197123750533</v>
       </c>
       <c r="M137" t="n">
-        <v>0.07427663509251349</v>
+        <v>0.1066759684261884</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06092356053606689</v>
+        <v>0.1103903136961069</v>
       </c>
       <c r="O137" t="n">
-        <v>0.4413729239428925</v>
+        <v>0.01094075726775997</v>
       </c>
       <c r="P137" t="n">
-        <v>0.4413729239428925</v>
+        <v>0.1887415434114061</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>s__Veillonella tobetsuensis</t>
+          <t>s__Veillonella atypica</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>s__Veillonella tobetsuensis</t>
+          <t>s__Veillonella atypica</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7155.fa</t>
+          <t>even_MAG-GUT7132.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.06746424258089308</v>
+        <v>2.266470795735964e-14</v>
       </c>
       <c r="C138" t="n">
-        <v>0.02941889413482258</v>
+        <v>0.01012017047114528</v>
       </c>
       <c r="D138" t="n">
-        <v>0.05870580575276558</v>
+        <v>0.003328856191239816</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0956459241827151</v>
+        <v>0.06412589105560386</v>
       </c>
       <c r="F138" t="n">
-        <v>0.04641161721522347</v>
+        <v>0.02529385501826421</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1955172895229179</v>
+        <v>0.1374120321952725</v>
       </c>
       <c r="H138" t="n">
-        <v>0.008234793392502748</v>
+        <v>0.008324597675012806</v>
       </c>
       <c r="I138" t="n">
-        <v>0.09543988065426263</v>
+        <v>0.06535873163184146</v>
       </c>
       <c r="J138" t="n">
-        <v>0.09649580345563681</v>
+        <v>0.06773776607633572</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05165371115750961</v>
+        <v>0.02518626251194747</v>
       </c>
       <c r="L138" t="n">
-        <v>0.02881719007321005</v>
+        <v>0.0165387176018415</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1119680016354802</v>
+        <v>0.07427663509251349</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1071901709988611</v>
+        <v>0.06092356053606689</v>
       </c>
       <c r="O138" t="n">
-        <v>0.007036675243199214</v>
+        <v>0.4413729239428925</v>
       </c>
       <c r="P138" t="n">
-        <v>0.1955172895229179</v>
+        <v>0.4413729239428925</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>s__Veillonella atypica</t>
+          <t>s__Veillonella tobetsuensis</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>s__Veillonella atypica</t>
+          <t>s__Veillonella tobetsuensis</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7161.fa</t>
+          <t>even_MAG-GUT7155.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.07511096465929019</v>
+        <v>0.06746424258089308</v>
       </c>
       <c r="C139" t="n">
-        <v>0.044417798599669</v>
+        <v>0.02941889413482258</v>
       </c>
       <c r="D139" t="n">
-        <v>0.01725381615974676</v>
+        <v>0.05870580575276558</v>
       </c>
       <c r="E139" t="n">
-        <v>0.09577893313157504</v>
+        <v>0.0956459241827151</v>
       </c>
       <c r="F139" t="n">
-        <v>0.04031202224848816</v>
+        <v>0.04641161721522347</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1959410946032711</v>
+        <v>0.1955172895229179</v>
       </c>
       <c r="H139" t="n">
-        <v>0.009139478376480688</v>
+        <v>0.008234793392502748</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1013744075995398</v>
+        <v>0.09543988065426263</v>
       </c>
       <c r="J139" t="n">
-        <v>0.09189551032563673</v>
+        <v>0.09649580345563681</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04638506667735513</v>
+        <v>0.05165371115750961</v>
       </c>
       <c r="L139" t="n">
-        <v>0.02542667446283007</v>
+        <v>0.02881719007321005</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1107741473079369</v>
+        <v>0.1119680016354802</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09543447366644721</v>
+        <v>0.1071901709988611</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05075561218173329</v>
+        <v>0.007036675243199214</v>
       </c>
       <c r="P139" t="n">
-        <v>0.1959410946032711</v>
+        <v>0.1955172895229179</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -9085,53 +9085,53 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7166.fa</t>
+          <t>even_MAG-GUT7161.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.246791947335843e-14</v>
+        <v>0.07511096465929019</v>
       </c>
       <c r="C140" t="n">
-        <v>0.03360952932026158</v>
+        <v>0.044417798599669</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1657305146076195</v>
+        <v>0.01725381615974676</v>
       </c>
       <c r="E140" t="n">
-        <v>0.09454530240454433</v>
+        <v>0.09577893313157504</v>
       </c>
       <c r="F140" t="n">
-        <v>0.03956256526319943</v>
+        <v>0.04031202224848816</v>
       </c>
       <c r="G140" t="n">
-        <v>0.195765281104199</v>
+        <v>0.1959410946032711</v>
       </c>
       <c r="H140" t="n">
-        <v>0.003409820575442923</v>
+        <v>0.009139478376480688</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1062428341176188</v>
+        <v>0.1013744075995398</v>
       </c>
       <c r="J140" t="n">
-        <v>0.103028688655623</v>
+        <v>0.09189551032563673</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05097546663124941</v>
+        <v>0.04638506667735513</v>
       </c>
       <c r="L140" t="n">
-        <v>0.01645082318306407</v>
+        <v>0.02542667446283007</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1073497573064301</v>
+        <v>0.1107741473079369</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07461753421107135</v>
+        <v>0.09543447366644721</v>
       </c>
       <c r="O140" t="n">
-        <v>0.008711882619654025</v>
+        <v>0.05075561218173329</v>
       </c>
       <c r="P140" t="n">
-        <v>0.195765281104199</v>
+        <v>0.1959410946032711</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -9147,177 +9147,177 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7197.fa</t>
+          <t>even_MAG-GUT7166.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2.279839002881082e-14</v>
+        <v>2.246791947335843e-14</v>
       </c>
       <c r="C141" t="n">
-        <v>0.006875698570241102</v>
+        <v>0.03360952932026158</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5563513940750239</v>
+        <v>0.1657305146076195</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0505036041625844</v>
+        <v>0.09454530240454433</v>
       </c>
       <c r="F141" t="n">
-        <v>0.02020733413099783</v>
+        <v>0.03956256526319943</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1094221938655754</v>
+        <v>0.195765281104199</v>
       </c>
       <c r="H141" t="n">
-        <v>0.008122166634991289</v>
+        <v>0.003409820575442923</v>
       </c>
       <c r="I141" t="n">
-        <v>0.05284486494053264</v>
+        <v>0.1062428341176188</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05947022714334241</v>
+        <v>0.103028688655623</v>
       </c>
       <c r="K141" t="n">
-        <v>0.02013389725303257</v>
+        <v>0.05097546663124941</v>
       </c>
       <c r="L141" t="n">
-        <v>0.004788445578216929</v>
+        <v>0.01645082318306407</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0606971317016485</v>
+        <v>0.1073497573064301</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04593924963089631</v>
+        <v>0.07461753421107135</v>
       </c>
       <c r="O141" t="n">
-        <v>0.004643792312893996</v>
+        <v>0.008711882619654025</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5563513940750239</v>
+        <v>0.195765281104199</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>s__Veillonella rogosae</t>
+          <t>s__Veillonella atypica</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>s__Veillonella rogosae</t>
+          <t>s__Veillonella atypica</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7210.fa</t>
+          <t>even_MAG-GUT7197.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2.2441159794264e-14</v>
+        <v>2.279839002881082e-14</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01087122413292421</v>
+        <v>0.006875698570241102</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3393933708391063</v>
+        <v>0.5563513940750239</v>
       </c>
       <c r="E142" t="n">
-        <v>0.07804969243094526</v>
+        <v>0.0505036041625844</v>
       </c>
       <c r="F142" t="n">
-        <v>0.03185191455155791</v>
+        <v>0.02020733413099783</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1681793966886617</v>
+        <v>0.1094221938655754</v>
       </c>
       <c r="H142" t="n">
-        <v>0.003596160179018062</v>
+        <v>0.008122166634991289</v>
       </c>
       <c r="I142" t="n">
-        <v>0.07916261176283505</v>
+        <v>0.05284486494053264</v>
       </c>
       <c r="J142" t="n">
-        <v>0.07308150645180848</v>
+        <v>0.05947022714334241</v>
       </c>
       <c r="K142" t="n">
-        <v>0.03484811969758336</v>
+        <v>0.02013389725303257</v>
       </c>
       <c r="L142" t="n">
-        <v>0.01135732441139563</v>
+        <v>0.004788445578216929</v>
       </c>
       <c r="M142" t="n">
-        <v>0.09091913539153142</v>
+        <v>0.0606971317016485</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07666581297648395</v>
+        <v>0.04593924963089631</v>
       </c>
       <c r="O142" t="n">
-        <v>0.002023730486126179</v>
+        <v>0.004643792312893996</v>
       </c>
       <c r="P142" t="n">
-        <v>0.3393933708391063</v>
+        <v>0.5563513940750239</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>s__Veillonella atypica</t>
+          <t>s__Veillonella rogosae</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>s__Veillonella atypica</t>
+          <t>s__Veillonella rogosae</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7229.fa</t>
+          <t>even_MAG-GUT7210.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.08031756975280491</v>
+        <v>2.2441159794264e-14</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01244077801771185</v>
+        <v>0.01087122413292421</v>
       </c>
       <c r="D143" t="n">
-        <v>0.009553352532285937</v>
+        <v>0.3393933708391063</v>
       </c>
       <c r="E143" t="n">
-        <v>0.09686394529446389</v>
+        <v>0.07804969243094526</v>
       </c>
       <c r="F143" t="n">
-        <v>0.04456200215655232</v>
+        <v>0.03185191455155791</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1977259192760562</v>
+        <v>0.1681793966886617</v>
       </c>
       <c r="H143" t="n">
-        <v>0.02194095811208065</v>
+        <v>0.003596160179018062</v>
       </c>
       <c r="I143" t="n">
-        <v>0.10638263415918</v>
+        <v>0.07916261176283505</v>
       </c>
       <c r="J143" t="n">
-        <v>0.09717023587099213</v>
+        <v>0.07308150645180848</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04801803226758265</v>
+        <v>0.03484811969758336</v>
       </c>
       <c r="L143" t="n">
-        <v>0.02433207106730669</v>
+        <v>0.01135732441139563</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1115216466482366</v>
+        <v>0.09091913539153142</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08565896300310566</v>
+        <v>0.07666581297648395</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06351189184164061</v>
+        <v>0.002023730486126179</v>
       </c>
       <c r="P143" t="n">
-        <v>0.1977259192760562</v>
+        <v>0.3393933708391063</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -9333,53 +9333,53 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7247.fa</t>
+          <t>even_MAG-GUT7229.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2.237054154291462e-14</v>
+        <v>0.08031756975280491</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01081022017794075</v>
+        <v>0.01244077801771185</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0007596679647027988</v>
+        <v>0.009553352532285937</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0826189551404569</v>
+        <v>0.09686394529446389</v>
       </c>
       <c r="F144" t="n">
-        <v>0.03076889863968745</v>
+        <v>0.04456200215655232</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1704893603224043</v>
+        <v>0.1977259192760562</v>
       </c>
       <c r="H144" t="n">
-        <v>0.003763386354829402</v>
+        <v>0.02194095811208065</v>
       </c>
       <c r="I144" t="n">
-        <v>0.08202131566455315</v>
+        <v>0.10638263415918</v>
       </c>
       <c r="J144" t="n">
-        <v>0.09092704914801342</v>
+        <v>0.09717023587099213</v>
       </c>
       <c r="K144" t="n">
-        <v>0.03128187968640082</v>
+        <v>0.04801803226758265</v>
       </c>
       <c r="L144" t="n">
-        <v>0.02788289820682745</v>
+        <v>0.02433207106730669</v>
       </c>
       <c r="M144" t="n">
-        <v>0.09871864837737979</v>
+        <v>0.1115216466482366</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08211177171276468</v>
+        <v>0.08565896300310566</v>
       </c>
       <c r="O144" t="n">
-        <v>0.2878459486040167</v>
+        <v>0.06351189184164061</v>
       </c>
       <c r="P144" t="n">
-        <v>0.2878459486040167</v>
+        <v>0.1977259192760562</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -9395,53 +9395,53 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87821.fa</t>
+          <t>even_MAG-GUT7247.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2.221470764993394e-14</v>
+        <v>2.237054154291462e-14</v>
       </c>
       <c r="C145" t="n">
-        <v>0.01627337427713384</v>
+        <v>0.01081022017794075</v>
       </c>
       <c r="D145" t="n">
-        <v>0.04737873951766117</v>
+        <v>0.0007596679647027988</v>
       </c>
       <c r="E145" t="n">
-        <v>0.09243416131402721</v>
+        <v>0.0826189551404569</v>
       </c>
       <c r="F145" t="n">
-        <v>0.03129448029329934</v>
+        <v>0.03076889863968745</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1925355623679171</v>
+        <v>0.1704893603224043</v>
       </c>
       <c r="H145" t="n">
-        <v>0.01153331579201303</v>
+        <v>0.003763386354829402</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0965779111787681</v>
+        <v>0.08202131566455315</v>
       </c>
       <c r="J145" t="n">
-        <v>0.09995749747099932</v>
+        <v>0.09092704914801342</v>
       </c>
       <c r="K145" t="n">
-        <v>0.02680986003505426</v>
+        <v>0.03128187968640082</v>
       </c>
       <c r="L145" t="n">
-        <v>0.01397688142559277</v>
+        <v>0.02788289820682745</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1059244840123376</v>
+        <v>0.09871864837737979</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09988959970193514</v>
+        <v>0.08211177171276468</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1654141326132387</v>
+        <v>0.2878459486040167</v>
       </c>
       <c r="P145" t="n">
-        <v>0.1925355623679171</v>
+        <v>0.2878459486040167</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -9457,53 +9457,53 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87873.fa</t>
+          <t>even_MAG-GUT87821.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.04958598792150898</v>
+        <v>2.221470764993394e-14</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01464926850605616</v>
+        <v>0.01627337427713384</v>
       </c>
       <c r="D146" t="n">
-        <v>0.07795172913058442</v>
+        <v>0.04737873951766117</v>
       </c>
       <c r="E146" t="n">
-        <v>0.09080513706795834</v>
+        <v>0.09243416131402721</v>
       </c>
       <c r="F146" t="n">
-        <v>0.04014166848804767</v>
+        <v>0.03129448029329934</v>
       </c>
       <c r="G146" t="n">
-        <v>0.190152940163197</v>
+        <v>0.1925355623679171</v>
       </c>
       <c r="H146" t="n">
-        <v>0.01592250786518174</v>
+        <v>0.01153331579201303</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1116823512631653</v>
+        <v>0.0965779111787681</v>
       </c>
       <c r="J146" t="n">
-        <v>0.09116408967778612</v>
+        <v>0.09995749747099932</v>
       </c>
       <c r="K146" t="n">
-        <v>0.03320950090791636</v>
+        <v>0.02680986003505426</v>
       </c>
       <c r="L146" t="n">
-        <v>0.01678231904672898</v>
+        <v>0.01397688142559277</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1052954030008229</v>
+        <v>0.1059244840123376</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08779582740715615</v>
+        <v>0.09988959970193514</v>
       </c>
       <c r="O146" t="n">
-        <v>0.07486126955388978</v>
+        <v>0.1654141326132387</v>
       </c>
       <c r="P146" t="n">
-        <v>0.190152940163197</v>
+        <v>0.1925355623679171</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -9519,53 +9519,53 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89205.fa</t>
+          <t>even_MAG-GUT87873.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.05425117685505243</v>
+        <v>0.04958598792150898</v>
       </c>
       <c r="C147" t="n">
-        <v>0.03402120040636638</v>
+        <v>0.01464926850605616</v>
       </c>
       <c r="D147" t="n">
-        <v>0.03745567562029473</v>
+        <v>0.07795172913058442</v>
       </c>
       <c r="E147" t="n">
-        <v>0.09280097251881711</v>
+        <v>0.09080513706795834</v>
       </c>
       <c r="F147" t="n">
-        <v>0.04862330861834051</v>
+        <v>0.04014166848804767</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1937927940471546</v>
+        <v>0.190152940163197</v>
       </c>
       <c r="H147" t="n">
-        <v>0.006102207611561069</v>
+        <v>0.01592250786518174</v>
       </c>
       <c r="I147" t="n">
-        <v>0.08675259579852121</v>
+        <v>0.1116823512631653</v>
       </c>
       <c r="J147" t="n">
-        <v>0.09410738586684736</v>
+        <v>0.09116408967778612</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05741057321065767</v>
+        <v>0.03320950090791636</v>
       </c>
       <c r="L147" t="n">
-        <v>0.02479842419004405</v>
+        <v>0.01678231904672898</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1085701361434604</v>
+        <v>0.1052954030008229</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09036182584475538</v>
+        <v>0.08779582740715615</v>
       </c>
       <c r="O147" t="n">
-        <v>0.07095172326812701</v>
+        <v>0.07486126955388978</v>
       </c>
       <c r="P147" t="n">
-        <v>0.1937927940471546</v>
+        <v>0.190152940163197</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -9581,53 +9581,53 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89291.fa</t>
+          <t>even_MAG-GUT89205.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.0668130140398278</v>
+        <v>0.05425117685505243</v>
       </c>
       <c r="C148" t="n">
-        <v>0.02814618014901908</v>
+        <v>0.03402120040636638</v>
       </c>
       <c r="D148" t="n">
-        <v>0.07504709755522455</v>
+        <v>0.03745567562029473</v>
       </c>
       <c r="E148" t="n">
-        <v>0.09512642883848764</v>
+        <v>0.09280097251881711</v>
       </c>
       <c r="F148" t="n">
-        <v>0.04051212476907705</v>
+        <v>0.04862330861834051</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1989897413069001</v>
+        <v>0.1937927940471546</v>
       </c>
       <c r="H148" t="n">
-        <v>0.008895735416447536</v>
+        <v>0.006102207611561069</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0987705083539365</v>
+        <v>0.08675259579852121</v>
       </c>
       <c r="J148" t="n">
-        <v>0.09587983636307314</v>
+        <v>0.09410738586684736</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06053725479988096</v>
+        <v>0.05741057321065767</v>
       </c>
       <c r="L148" t="n">
-        <v>0.02760547903691497</v>
+        <v>0.02479842419004405</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1087526636095788</v>
+        <v>0.1085701361434604</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08410603604654827</v>
+        <v>0.09036182584475538</v>
       </c>
       <c r="O148" t="n">
-        <v>0.01081789971508354</v>
+        <v>0.07095172326812701</v>
       </c>
       <c r="P148" t="n">
-        <v>0.1989897413069001</v>
+        <v>0.1937927940471546</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -9643,53 +9643,53 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89318.fa</t>
+          <t>even_MAG-GUT89291.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.289214051501209e-14</v>
+        <v>0.0668130140398278</v>
       </c>
       <c r="C149" t="n">
-        <v>0.03897371880488987</v>
+        <v>0.02814618014901908</v>
       </c>
       <c r="D149" t="n">
-        <v>0.135092249573526</v>
+        <v>0.07504709755522455</v>
       </c>
       <c r="E149" t="n">
-        <v>0.09626262827603509</v>
+        <v>0.09512642883848764</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0477730504104818</v>
+        <v>0.04051212476907705</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1970464163459188</v>
+        <v>0.1989897413069001</v>
       </c>
       <c r="H149" t="n">
-        <v>0.004338065126791649</v>
+        <v>0.008895735416447536</v>
       </c>
       <c r="I149" t="n">
-        <v>0.088869507224646</v>
+        <v>0.0987705083539365</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1017793986786123</v>
+        <v>0.09587983636307314</v>
       </c>
       <c r="K149" t="n">
-        <v>0.03973243519881706</v>
+        <v>0.06053725479988096</v>
       </c>
       <c r="L149" t="n">
-        <v>0.02145499076878007</v>
+        <v>0.02760547903691497</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1105517872262223</v>
+        <v>0.1087526636095788</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1066630799611756</v>
+        <v>0.08410603604654827</v>
       </c>
       <c r="O149" t="n">
-        <v>0.01146267240408056</v>
+        <v>0.01081789971508354</v>
       </c>
       <c r="P149" t="n">
-        <v>0.1970464163459188</v>
+        <v>0.1989897413069001</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89356.fa</t>
+          <t>even_MAG-GUT89318.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -9767,53 +9767,53 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89364.fa</t>
+          <t>even_MAG-GUT89356.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.228368396333445e-14</v>
+        <v>2.289214051501209e-14</v>
       </c>
       <c r="C151" t="n">
-        <v>0.003542500829558605</v>
+        <v>0.03897371880488987</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01962194727265822</v>
+        <v>0.135092249573526</v>
       </c>
       <c r="E151" t="n">
-        <v>0.08844265670310833</v>
+        <v>0.09626262827603509</v>
       </c>
       <c r="F151" t="n">
-        <v>0.03293179704608203</v>
+        <v>0.0477730504104818</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1865767856967495</v>
+        <v>0.1970464163459188</v>
       </c>
       <c r="H151" t="n">
-        <v>0.02936748327861134</v>
+        <v>0.004338065126791649</v>
       </c>
       <c r="I151" t="n">
-        <v>0.09668765913841433</v>
+        <v>0.088869507224646</v>
       </c>
       <c r="J151" t="n">
-        <v>0.103684739050985</v>
+        <v>0.1017793986786123</v>
       </c>
       <c r="K151" t="n">
-        <v>0.01765349303941885</v>
+        <v>0.03973243519881706</v>
       </c>
       <c r="L151" t="n">
-        <v>0.01806857231968492</v>
+        <v>0.02145499076878007</v>
       </c>
       <c r="M151" t="n">
-        <v>0.106157418063996</v>
+        <v>0.1105517872262223</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07706556695562164</v>
+        <v>0.1066630799611756</v>
       </c>
       <c r="O151" t="n">
-        <v>0.2201993806050889</v>
+        <v>0.01146267240408056</v>
       </c>
       <c r="P151" t="n">
-        <v>0.2201993806050889</v>
+        <v>0.1970464163459188</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -9829,53 +9829,53 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89717.fa</t>
+          <t>even_MAG-GUT89364.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.221700532179535e-14</v>
+        <v>2.228368396333445e-14</v>
       </c>
       <c r="C152" t="n">
-        <v>0.04936522092656252</v>
+        <v>0.003542500829558605</v>
       </c>
       <c r="D152" t="n">
-        <v>0.02751886583655157</v>
+        <v>0.01962194727265822</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0924991023181287</v>
+        <v>0.08844265670310833</v>
       </c>
       <c r="F152" t="n">
-        <v>0.04624803012673693</v>
+        <v>0.03293179704608203</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1912223443013175</v>
+        <v>0.1865767856967495</v>
       </c>
       <c r="H152" t="n">
-        <v>0.003663242593486863</v>
+        <v>0.02936748327861134</v>
       </c>
       <c r="I152" t="n">
-        <v>0.09526027930331812</v>
+        <v>0.09668765913841433</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0938163497891846</v>
+        <v>0.103684739050985</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0341978829265391</v>
+        <v>0.01765349303941885</v>
       </c>
       <c r="L152" t="n">
-        <v>0.01739951269466901</v>
+        <v>0.01806857231968492</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1081157853951294</v>
+        <v>0.106157418063996</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07937089221351945</v>
+        <v>0.07706556695562164</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1613224915748339</v>
+        <v>0.2201993806050889</v>
       </c>
       <c r="P152" t="n">
-        <v>0.1912223443013175</v>
+        <v>0.2201993806050889</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -9891,53 +9891,53 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90076.fa</t>
+          <t>even_MAG-GUT89717.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.456468858874162e-14</v>
+        <v>2.221700532179535e-14</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01040206989735283</v>
+        <v>0.04936522092656252</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0007320750123247849</v>
+        <v>0.02751886583655157</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1026573647345609</v>
+        <v>0.0924991023181287</v>
       </c>
       <c r="F153" t="n">
-        <v>0.05398500352238216</v>
+        <v>0.04624803012673693</v>
       </c>
       <c r="G153" t="n">
-        <v>0.209876351864655</v>
+        <v>0.1912223443013175</v>
       </c>
       <c r="H153" t="n">
-        <v>0.02653274214920575</v>
+        <v>0.003663242593486863</v>
       </c>
       <c r="I153" t="n">
-        <v>0.1043606867201523</v>
+        <v>0.09526027930331812</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1164839941451607</v>
+        <v>0.0938163497891846</v>
       </c>
       <c r="K153" t="n">
-        <v>0.02997750710014689</v>
+        <v>0.0341978829265391</v>
       </c>
       <c r="L153" t="n">
-        <v>0.01748663658482059</v>
+        <v>0.01739951269466901</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1251470674522062</v>
+        <v>0.1081157853951294</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1079189269879587</v>
+        <v>0.07937089221351945</v>
       </c>
       <c r="O153" t="n">
-        <v>0.09443957382904873</v>
+        <v>0.1613224915748339</v>
       </c>
       <c r="P153" t="n">
-        <v>0.209876351864655</v>
+        <v>0.1912223443013175</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -9953,53 +9953,53 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90108.fa</t>
+          <t>even_MAG-GUT90076.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2.241642681244504e-14</v>
+        <v>2.456468858874162e-14</v>
       </c>
       <c r="C154" t="n">
-        <v>0.03311360508505807</v>
+        <v>0.01040206989735283</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02024767683197437</v>
+        <v>0.0007320750123247849</v>
       </c>
       <c r="E154" t="n">
-        <v>0.08086152677591105</v>
+        <v>0.1026573647345609</v>
       </c>
       <c r="F154" t="n">
-        <v>0.04277028836826693</v>
+        <v>0.05398500352238216</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1696893437974835</v>
+        <v>0.209876351864655</v>
       </c>
       <c r="H154" t="n">
-        <v>0.004029940419933068</v>
+        <v>0.02653274214920575</v>
       </c>
       <c r="I154" t="n">
-        <v>0.08119778639608394</v>
+        <v>0.1043606867201523</v>
       </c>
       <c r="J154" t="n">
-        <v>0.08346765685848656</v>
+        <v>0.1164839941451607</v>
       </c>
       <c r="K154" t="n">
-        <v>0.03722674985433046</v>
+        <v>0.02997750710014689</v>
       </c>
       <c r="L154" t="n">
-        <v>0.01911180041142556</v>
+        <v>0.01748663658482059</v>
       </c>
       <c r="M154" t="n">
-        <v>0.09357278503036077</v>
+        <v>0.1251470674522062</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0657534296795796</v>
+        <v>0.1079189269879587</v>
       </c>
       <c r="O154" t="n">
-        <v>0.2689574104910836</v>
+        <v>0.09443957382904873</v>
       </c>
       <c r="P154" t="n">
-        <v>0.2689574104910836</v>
+        <v>0.209876351864655</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -10015,53 +10015,53 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90168.fa</t>
+          <t>even_MAG-GUT90108.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.09814604605266798</v>
+        <v>2.241642681244504e-14</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02839204518266366</v>
+        <v>0.03311360508505807</v>
       </c>
       <c r="D155" t="n">
-        <v>0.02925198904382447</v>
+        <v>0.02024767683197437</v>
       </c>
       <c r="E155" t="n">
-        <v>0.09851349987122089</v>
+        <v>0.08086152677591105</v>
       </c>
       <c r="F155" t="n">
-        <v>0.04697322976023247</v>
+        <v>0.04277028836826693</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1995951076002503</v>
+        <v>0.1696893437974835</v>
       </c>
       <c r="H155" t="n">
-        <v>0.01196526760838232</v>
+        <v>0.004029940419933068</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0864066439753552</v>
+        <v>0.08119778639608394</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1073456910028646</v>
+        <v>0.08346765685848656</v>
       </c>
       <c r="K155" t="n">
-        <v>0.04072419623460769</v>
+        <v>0.03722674985433046</v>
       </c>
       <c r="L155" t="n">
-        <v>0.02994023505399087</v>
+        <v>0.01911180041142556</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1140112706093825</v>
+        <v>0.09357278503036077</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08869363819045956</v>
+        <v>0.0657534296795796</v>
       </c>
       <c r="O155" t="n">
-        <v>0.02004113981409761</v>
+        <v>0.2689574104910836</v>
       </c>
       <c r="P155" t="n">
-        <v>0.1995951076002503</v>
+        <v>0.2689574104910836</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -10077,53 +10077,53 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90190.fa</t>
+          <t>even_MAG-GUT90168.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.05425117685505243</v>
+        <v>0.09814604605266798</v>
       </c>
       <c r="C156" t="n">
-        <v>0.03402120040636638</v>
+        <v>0.02839204518266366</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03745567562029473</v>
+        <v>0.02925198904382447</v>
       </c>
       <c r="E156" t="n">
-        <v>0.09280097251881711</v>
+        <v>0.09851349987122089</v>
       </c>
       <c r="F156" t="n">
-        <v>0.04862330861834051</v>
+        <v>0.04697322976023247</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1937927940471546</v>
+        <v>0.1995951076002503</v>
       </c>
       <c r="H156" t="n">
-        <v>0.006102207611561069</v>
+        <v>0.01196526760838232</v>
       </c>
       <c r="I156" t="n">
-        <v>0.08675259579852121</v>
+        <v>0.0864066439753552</v>
       </c>
       <c r="J156" t="n">
-        <v>0.09410738586684736</v>
+        <v>0.1073456910028646</v>
       </c>
       <c r="K156" t="n">
-        <v>0.05741057321065767</v>
+        <v>0.04072419623460769</v>
       </c>
       <c r="L156" t="n">
-        <v>0.02479842419004405</v>
+        <v>0.02994023505399087</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1085701361434604</v>
+        <v>0.1140112706093825</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09036182584475538</v>
+        <v>0.08869363819045956</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07095172326812701</v>
+        <v>0.02004113981409761</v>
       </c>
       <c r="P156" t="n">
-        <v>0.1937927940471546</v>
+        <v>0.1995951076002503</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -10139,53 +10139,53 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90292.fa</t>
+          <t>even_MAG-GUT90190.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2.226202510551651e-14</v>
+        <v>0.05425117685505243</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01392452062228552</v>
+        <v>0.03402120040636638</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2116314470819219</v>
+        <v>0.03745567562029473</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0895317971202317</v>
+        <v>0.09280097251881711</v>
       </c>
       <c r="F157" t="n">
-        <v>0.03660139214114451</v>
+        <v>0.04862330861834051</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1843704173489569</v>
+        <v>0.1937927940471546</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0138779590199673</v>
+        <v>0.006102207611561069</v>
       </c>
       <c r="I157" t="n">
-        <v>0.09939666072281968</v>
+        <v>0.08675259579852121</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1019521211940699</v>
+        <v>0.09410738586684736</v>
       </c>
       <c r="K157" t="n">
-        <v>0.04305360144043646</v>
+        <v>0.05741057321065767</v>
       </c>
       <c r="L157" t="n">
-        <v>0.007434203177705057</v>
+        <v>0.02479842419004405</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1023648381940326</v>
+        <v>0.1085701361434604</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09021257897492715</v>
+        <v>0.09036182584475538</v>
       </c>
       <c r="O157" t="n">
-        <v>0.005648462961479099</v>
+        <v>0.07095172326812701</v>
       </c>
       <c r="P157" t="n">
-        <v>0.2116314470819219</v>
+        <v>0.1937927940471546</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -10201,53 +10201,53 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90367.fa</t>
+          <t>even_MAG-GUT90292.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.07811800205968722</v>
+        <v>2.226202510551651e-14</v>
       </c>
       <c r="C158" t="n">
-        <v>0.008703554663214741</v>
+        <v>0.01392452062228552</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00886468330952943</v>
+        <v>0.2116314470819219</v>
       </c>
       <c r="E158" t="n">
-        <v>0.09641425394905383</v>
+        <v>0.0895317971202317</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04640055263902108</v>
+        <v>0.03660139214114451</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1976195102646668</v>
+        <v>0.1843704173489569</v>
       </c>
       <c r="H158" t="n">
-        <v>0.04328977504756357</v>
+        <v>0.0138779590199673</v>
       </c>
       <c r="I158" t="n">
-        <v>0.1122013128659923</v>
+        <v>0.09939666072281968</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1085943249610205</v>
+        <v>0.1019521211940699</v>
       </c>
       <c r="K158" t="n">
-        <v>0.04896322826878445</v>
+        <v>0.04305360144043646</v>
       </c>
       <c r="L158" t="n">
-        <v>0.02888737928758235</v>
+        <v>0.007434203177705057</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1140437904554025</v>
+        <v>0.1023648381940326</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0782405608603023</v>
+        <v>0.09021257897492715</v>
       </c>
       <c r="O158" t="n">
-        <v>0.02965907136817891</v>
+        <v>0.005648462961479099</v>
       </c>
       <c r="P158" t="n">
-        <v>0.1976195102646668</v>
+        <v>0.2116314470819219</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -10263,53 +10263,53 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90600.fa</t>
+          <t>even_MAG-GUT90367.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2.564656198183264e-14</v>
+        <v>0.07811800205968722</v>
       </c>
       <c r="C159" t="n">
-        <v>0.009299811785529067</v>
+        <v>0.008703554663214741</v>
       </c>
       <c r="D159" t="n">
-        <v>0.001075271517448216</v>
+        <v>0.00886468330952943</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1068756589479779</v>
+        <v>0.09641425394905383</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04468729327844623</v>
+        <v>0.04640055263902108</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2126574678618124</v>
+        <v>0.1976195102646668</v>
       </c>
       <c r="H159" t="n">
-        <v>0.004442338525048501</v>
+        <v>0.04328977504756357</v>
       </c>
       <c r="I159" t="n">
-        <v>0.1137148936442992</v>
+        <v>0.1122013128659923</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1185378156034996</v>
+        <v>0.1085943249610205</v>
       </c>
       <c r="K159" t="n">
-        <v>0.05329817419325262</v>
+        <v>0.04896322826878445</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04323249396527652</v>
+        <v>0.02888737928758235</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1285558649847121</v>
+        <v>0.1140437904554025</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1257002638217799</v>
+        <v>0.0782405608603023</v>
       </c>
       <c r="O159" t="n">
-        <v>0.03792265187089189</v>
+        <v>0.02965907136817891</v>
       </c>
       <c r="P159" t="n">
-        <v>0.2126574678618124</v>
+        <v>0.1976195102646668</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -10325,53 +10325,53 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90634.fa</t>
+          <t>even_MAG-GUT90600.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2.261141549518246e-14</v>
+        <v>2.564656198183264e-14</v>
       </c>
       <c r="C160" t="n">
-        <v>0.006292379008464038</v>
+        <v>0.009299811785529067</v>
       </c>
       <c r="D160" t="n">
-        <v>0.006144891455826882</v>
+        <v>0.001075271517448216</v>
       </c>
       <c r="E160" t="n">
-        <v>0.09521385701164933</v>
+        <v>0.1068756589479779</v>
       </c>
       <c r="F160" t="n">
-        <v>0.03674584903894867</v>
+        <v>0.04468729327844623</v>
       </c>
       <c r="G160" t="n">
-        <v>0.2005686121699719</v>
+        <v>0.2126574678618124</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0217607834349908</v>
+        <v>0.004442338525048501</v>
       </c>
       <c r="I160" t="n">
-        <v>0.09173486184799073</v>
+        <v>0.1137148936442992</v>
       </c>
       <c r="J160" t="n">
-        <v>0.111528647087743</v>
+        <v>0.1185378156034996</v>
       </c>
       <c r="K160" t="n">
-        <v>0.02421889300696961</v>
+        <v>0.05329817419325262</v>
       </c>
       <c r="L160" t="n">
-        <v>0.02109381908952937</v>
+        <v>0.04323249396527652</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1113380636303785</v>
+        <v>0.1285558649847121</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09279602780773138</v>
+        <v>0.1257002638217799</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1805633154097831</v>
+        <v>0.03792265187089189</v>
       </c>
       <c r="P160" t="n">
-        <v>0.2005686121699719</v>
+        <v>0.2126574678618124</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -10387,53 +10387,53 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90947.fa</t>
+          <t>even_MAG-GUT90634.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2.289214051501209e-14</v>
+        <v>2.261141549518246e-14</v>
       </c>
       <c r="C161" t="n">
-        <v>0.03897371880488987</v>
+        <v>0.006292379008464038</v>
       </c>
       <c r="D161" t="n">
-        <v>0.135092249573526</v>
+        <v>0.006144891455826882</v>
       </c>
       <c r="E161" t="n">
-        <v>0.09626262827603509</v>
+        <v>0.09521385701164933</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0477730504104818</v>
+        <v>0.03674584903894867</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1970464163459188</v>
+        <v>0.2005686121699719</v>
       </c>
       <c r="H161" t="n">
-        <v>0.004338065126791649</v>
+        <v>0.0217607834349908</v>
       </c>
       <c r="I161" t="n">
-        <v>0.088869507224646</v>
+        <v>0.09173486184799073</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1017793986786123</v>
+        <v>0.111528647087743</v>
       </c>
       <c r="K161" t="n">
-        <v>0.03973243519881706</v>
+        <v>0.02421889300696961</v>
       </c>
       <c r="L161" t="n">
-        <v>0.02145499076878007</v>
+        <v>0.02109381908952937</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1105517872262223</v>
+        <v>0.1113380636303785</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1066630799611756</v>
+        <v>0.09279602780773138</v>
       </c>
       <c r="O161" t="n">
-        <v>0.01146267240408056</v>
+        <v>0.1805633154097831</v>
       </c>
       <c r="P161" t="n">
-        <v>0.1970464163459188</v>
+        <v>0.2005686121699719</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90977.fa</t>
+          <t>even_MAG-GUT90947.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -10511,53 +10511,53 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91033.fa</t>
+          <t>even_MAG-GUT90977.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.04827177747363869</v>
+        <v>2.289214051501209e-14</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02095898111976723</v>
+        <v>0.03897371880488987</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009300857023415677</v>
+        <v>0.135092249573526</v>
       </c>
       <c r="E163" t="n">
-        <v>0.09353854872997651</v>
+        <v>0.09626262827603509</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0404523037686777</v>
+        <v>0.0477730504104818</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1958679614068369</v>
+        <v>0.1970464163459188</v>
       </c>
       <c r="H163" t="n">
-        <v>0.01219249282489812</v>
+        <v>0.004338065126791649</v>
       </c>
       <c r="I163" t="n">
-        <v>0.09605762957499504</v>
+        <v>0.088869507224646</v>
       </c>
       <c r="J163" t="n">
-        <v>0.09990827389892672</v>
+        <v>0.1017793986786123</v>
       </c>
       <c r="K163" t="n">
-        <v>0.04324763884325532</v>
+        <v>0.03973243519881706</v>
       </c>
       <c r="L163" t="n">
-        <v>0.01423419764512877</v>
+        <v>0.02145499076878007</v>
       </c>
       <c r="M163" t="n">
-        <v>0.108799913676733</v>
+        <v>0.1105517872262223</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07759544634056592</v>
+        <v>0.1066630799611756</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1395739776731844</v>
+        <v>0.01146267240408056</v>
       </c>
       <c r="P163" t="n">
-        <v>0.1958679614068369</v>
+        <v>0.1970464163459188</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -10573,53 +10573,53 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91117.fa</t>
+          <t>even_MAG-GUT91033.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2.289214051501209e-14</v>
+        <v>0.04827177747363869</v>
       </c>
       <c r="C164" t="n">
-        <v>0.03897371880488987</v>
+        <v>0.02095898111976723</v>
       </c>
       <c r="D164" t="n">
-        <v>0.135092249573526</v>
+        <v>0.009300857023415677</v>
       </c>
       <c r="E164" t="n">
-        <v>0.09626262827603509</v>
+        <v>0.09353854872997651</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0477730504104818</v>
+        <v>0.0404523037686777</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1970464163459188</v>
+        <v>0.1958679614068369</v>
       </c>
       <c r="H164" t="n">
-        <v>0.004338065126791649</v>
+        <v>0.01219249282489812</v>
       </c>
       <c r="I164" t="n">
-        <v>0.088869507224646</v>
+        <v>0.09605762957499504</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1017793986786123</v>
+        <v>0.09990827389892672</v>
       </c>
       <c r="K164" t="n">
-        <v>0.03973243519881706</v>
+        <v>0.04324763884325532</v>
       </c>
       <c r="L164" t="n">
-        <v>0.02145499076878007</v>
+        <v>0.01423419764512877</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1105517872262223</v>
+        <v>0.108799913676733</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1066630799611756</v>
+        <v>0.07759544634056592</v>
       </c>
       <c r="O164" t="n">
-        <v>0.01146267240408056</v>
+        <v>0.1395739776731844</v>
       </c>
       <c r="P164" t="n">
-        <v>0.1970464163459188</v>
+        <v>0.1958679614068369</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -10635,53 +10635,53 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91136.fa</t>
+          <t>even_MAG-GUT91117.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.223141096430773e-14</v>
+        <v>2.289214051501209e-14</v>
       </c>
       <c r="C165" t="n">
-        <v>0.02912142813456647</v>
+        <v>0.03897371880488987</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1474819421381524</v>
+        <v>0.135092249573526</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0916285425112488</v>
+        <v>0.09626262827603509</v>
       </c>
       <c r="F165" t="n">
-        <v>0.03753024146480834</v>
+        <v>0.0477730504104818</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1931803465109319</v>
+        <v>0.1970464163459188</v>
       </c>
       <c r="H165" t="n">
-        <v>0.006350115894913773</v>
+        <v>0.004338065126791649</v>
       </c>
       <c r="I165" t="n">
-        <v>0.08828383176809079</v>
+        <v>0.088869507224646</v>
       </c>
       <c r="J165" t="n">
-        <v>0.09840491182028439</v>
+        <v>0.1017793986786123</v>
       </c>
       <c r="K165" t="n">
-        <v>0.03279350465961804</v>
+        <v>0.03973243519881706</v>
       </c>
       <c r="L165" t="n">
-        <v>0.01716267305904302</v>
+        <v>0.02145499076878007</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1051346834514746</v>
+        <v>0.1105517872262223</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07405313781858744</v>
+        <v>0.1066630799611756</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07887464076825774</v>
+        <v>0.01146267240408056</v>
       </c>
       <c r="P165" t="n">
-        <v>0.1931803465109319</v>
+        <v>0.1970464163459188</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -10697,53 +10697,53 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91276.fa</t>
+          <t>even_MAG-GUT91136.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2.240303883691541e-14</v>
+        <v>2.223141096430773e-14</v>
       </c>
       <c r="C166" t="n">
-        <v>0.02014059587787866</v>
+        <v>0.02912142813456647</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1068467346845578</v>
+        <v>0.1474819421381524</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08184804830261568</v>
+        <v>0.0916285425112488</v>
       </c>
       <c r="F166" t="n">
-        <v>0.02818442773239234</v>
+        <v>0.03753024146480834</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1703874809407646</v>
+        <v>0.1931803465109319</v>
       </c>
       <c r="H166" t="n">
-        <v>0.003485795963313562</v>
+        <v>0.006350115894913773</v>
       </c>
       <c r="I166" t="n">
-        <v>0.09363068844150788</v>
+        <v>0.08828383176809079</v>
       </c>
       <c r="J166" t="n">
-        <v>0.08431063491120745</v>
+        <v>0.09840491182028439</v>
       </c>
       <c r="K166" t="n">
-        <v>0.02668919206063809</v>
+        <v>0.03279350465961804</v>
       </c>
       <c r="L166" t="n">
-        <v>0.01147731492405078</v>
+        <v>0.01716267305904302</v>
       </c>
       <c r="M166" t="n">
-        <v>0.09474168634890506</v>
+        <v>0.1051346834514746</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0875282948163358</v>
+        <v>0.07405313781858744</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1907291049958099</v>
+        <v>0.07887464076825774</v>
       </c>
       <c r="P166" t="n">
-        <v>0.1907291049958099</v>
+        <v>0.1931803465109319</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -10759,53 +10759,53 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91278.fa</t>
+          <t>even_MAG-GUT91276.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.08713555874179708</v>
+        <v>2.240303883691541e-14</v>
       </c>
       <c r="C167" t="n">
-        <v>0.01195125678716723</v>
+        <v>0.02014059587787866</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009499874301113485</v>
+        <v>0.1068467346845578</v>
       </c>
       <c r="E167" t="n">
-        <v>0.09738361573997491</v>
+        <v>0.08184804830261568</v>
       </c>
       <c r="F167" t="n">
-        <v>0.04845769515584039</v>
+        <v>0.02818442773239234</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1951491525103747</v>
+        <v>0.1703874809407646</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0152998675087637</v>
+        <v>0.003485795963313562</v>
       </c>
       <c r="I167" t="n">
-        <v>0.1006869302728673</v>
+        <v>0.09363068844150788</v>
       </c>
       <c r="J167" t="n">
-        <v>0.101382209769308</v>
+        <v>0.08431063491120745</v>
       </c>
       <c r="K167" t="n">
-        <v>0.04560701407963671</v>
+        <v>0.02668919206063809</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07092350821359177</v>
+        <v>0.01147731492405078</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1192788491458961</v>
+        <v>0.09474168634890506</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08301710440827076</v>
+        <v>0.0875282948163358</v>
       </c>
       <c r="O167" t="n">
-        <v>0.01422736336539794</v>
+        <v>0.1907291049958099</v>
       </c>
       <c r="P167" t="n">
-        <v>0.1951491525103747</v>
+        <v>0.1907291049958099</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -10821,53 +10821,53 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91345.fa</t>
+          <t>even_MAG-GUT91278.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.06833545235981169</v>
+        <v>0.08713555874179708</v>
       </c>
       <c r="C168" t="n">
-        <v>0.02372579773845128</v>
+        <v>0.01195125678716723</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01831970804438295</v>
+        <v>0.009499874301113485</v>
       </c>
       <c r="E168" t="n">
-        <v>0.09608558410404917</v>
+        <v>0.09738361573997491</v>
       </c>
       <c r="F168" t="n">
-        <v>0.04049031951295646</v>
+        <v>0.04845769515584039</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1926632726429106</v>
+        <v>0.1951491525103747</v>
       </c>
       <c r="H168" t="n">
-        <v>0.01731957518757337</v>
+        <v>0.0152998675087637</v>
       </c>
       <c r="I168" t="n">
-        <v>0.1045806568720927</v>
+        <v>0.1006869302728673</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1029157951377542</v>
+        <v>0.101382209769308</v>
       </c>
       <c r="K168" t="n">
-        <v>0.03634692247704087</v>
+        <v>0.04560701407963671</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0139615560914716</v>
+        <v>0.07092350821359177</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1105854288013529</v>
+        <v>0.1192788491458961</v>
       </c>
       <c r="N168" t="n">
-        <v>0.142749042977651</v>
+        <v>0.08301710440827076</v>
       </c>
       <c r="O168" t="n">
-        <v>0.03192088805250113</v>
+        <v>0.01422736336539794</v>
       </c>
       <c r="P168" t="n">
-        <v>0.1926632726429106</v>
+        <v>0.1951491525103747</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -10883,53 +10883,53 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91364.fa</t>
+          <t>even_MAG-GUT91345.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.1041570864673624</v>
+        <v>0.06833545235981169</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0179153950613805</v>
+        <v>0.02372579773845128</v>
       </c>
       <c r="D169" t="n">
-        <v>0.01511889283816607</v>
+        <v>0.01831970804438295</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0983432844798558</v>
+        <v>0.09608558410404917</v>
       </c>
       <c r="F169" t="n">
-        <v>0.04385779678655922</v>
+        <v>0.04049031951295646</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1979752074730402</v>
+        <v>0.1926632726429106</v>
       </c>
       <c r="H169" t="n">
-        <v>0.01342679714060978</v>
+        <v>0.01731957518757337</v>
       </c>
       <c r="I169" t="n">
-        <v>0.1060689929559836</v>
+        <v>0.1045806568720927</v>
       </c>
       <c r="J169" t="n">
-        <v>0.102923686789829</v>
+        <v>0.1029157951377542</v>
       </c>
       <c r="K169" t="n">
-        <v>0.05198397092011054</v>
+        <v>0.03634692247704087</v>
       </c>
       <c r="L169" t="n">
-        <v>0.03343311549567595</v>
+        <v>0.0139615560914716</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1143524018103865</v>
+        <v>0.1105854288013529</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08166660747464312</v>
+        <v>0.142749042977651</v>
       </c>
       <c r="O169" t="n">
-        <v>0.01877676430639724</v>
+        <v>0.03192088805250113</v>
       </c>
       <c r="P169" t="n">
-        <v>0.1979752074730402</v>
+        <v>0.1926632726429106</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -10945,53 +10945,53 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91383.fa</t>
+          <t>even_MAG-GUT91364.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2.492317338823956e-14</v>
+        <v>0.1041570864673624</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01046543430937241</v>
+        <v>0.0179153950613805</v>
       </c>
       <c r="D170" t="n">
-        <v>0.001572603497626777</v>
+        <v>0.01511889283816607</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1036546218173555</v>
+        <v>0.0983432844798558</v>
       </c>
       <c r="F170" t="n">
-        <v>0.04522368015255705</v>
+        <v>0.04385779678655922</v>
       </c>
       <c r="G170" t="n">
-        <v>0.2147719510459362</v>
+        <v>0.1979752074730402</v>
       </c>
       <c r="H170" t="n">
-        <v>0.003912495539701599</v>
+        <v>0.01342679714060978</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1056591455500932</v>
+        <v>0.1060689929559836</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1088550795126579</v>
+        <v>0.102923686789829</v>
       </c>
       <c r="K170" t="n">
-        <v>0.04459229967200133</v>
+        <v>0.05198397092011054</v>
       </c>
       <c r="L170" t="n">
-        <v>0.03644759405471711</v>
+        <v>0.03343311549567595</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1254568962108269</v>
+        <v>0.1143524018103865</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08470228943635993</v>
+        <v>0.08166660747464312</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1146859092007695</v>
+        <v>0.01877676430639724</v>
       </c>
       <c r="P170" t="n">
-        <v>0.2147719510459362</v>
+        <v>0.1979752074730402</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -11007,53 +11007,53 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91475.fa</t>
+          <t>even_MAG-GUT91383.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2.238356776577041e-14</v>
+        <v>2.492317338823956e-14</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02530543978886091</v>
+        <v>0.01046543430937241</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1475400564105426</v>
+        <v>0.001572603497626777</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0946448957564979</v>
+        <v>0.1036546218173555</v>
       </c>
       <c r="F171" t="n">
-        <v>0.04906608455105203</v>
+        <v>0.04522368015255705</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1923879511409703</v>
+        <v>0.2147719510459362</v>
       </c>
       <c r="H171" t="n">
-        <v>0.002950055269157726</v>
+        <v>0.003912495539701599</v>
       </c>
       <c r="I171" t="n">
-        <v>0.08700703016265081</v>
+        <v>0.1056591455500932</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1058135379366508</v>
+        <v>0.1088550795126579</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06071234484053051</v>
+        <v>0.04459229967200133</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0240753757755384</v>
+        <v>0.03644759405471711</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1127479015529947</v>
+        <v>0.1254568962108269</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09571226121388311</v>
+        <v>0.08470228943635993</v>
       </c>
       <c r="O171" t="n">
-        <v>0.002037065600647972</v>
+        <v>0.1146859092007695</v>
       </c>
       <c r="P171" t="n">
-        <v>0.1923879511409703</v>
+        <v>0.2147719510459362</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -11069,53 +11069,53 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91600.fa</t>
+          <t>even_MAG-GUT91475.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2.221901912681206e-14</v>
+        <v>2.238356776577041e-14</v>
       </c>
       <c r="C172" t="n">
-        <v>0.01786598528573093</v>
+        <v>0.02530543978886091</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1851869309107239</v>
+        <v>0.1475400564105426</v>
       </c>
       <c r="E172" t="n">
-        <v>0.09255677899884124</v>
+        <v>0.0946448957564979</v>
       </c>
       <c r="F172" t="n">
-        <v>0.04221470151809766</v>
+        <v>0.04906608455105203</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1865424549743156</v>
+        <v>0.1923879511409703</v>
       </c>
       <c r="H172" t="n">
-        <v>0.003955882522885949</v>
+        <v>0.002950055269157726</v>
       </c>
       <c r="I172" t="n">
-        <v>0.08955302093471769</v>
+        <v>0.08700703016265081</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1153018150500682</v>
+        <v>0.1058135379366508</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0393856840446917</v>
+        <v>0.06071234484053051</v>
       </c>
       <c r="L172" t="n">
-        <v>0.02182214539278251</v>
+        <v>0.0240753757755384</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1094838112692574</v>
+        <v>0.1127479015529947</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08956805771277582</v>
+        <v>0.09571226121388311</v>
       </c>
       <c r="O172" t="n">
-        <v>0.006562731385089397</v>
+        <v>0.002037065600647972</v>
       </c>
       <c r="P172" t="n">
-        <v>0.1865424549743156</v>
+        <v>0.1923879511409703</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -11131,53 +11131,53 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91603.fa</t>
+          <t>even_MAG-GUT91600.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2.274445611134706e-14</v>
+        <v>2.221901912681206e-14</v>
       </c>
       <c r="C173" t="n">
-        <v>0.02815550631142496</v>
+        <v>0.01786598528573093</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1051080202685665</v>
+        <v>0.1851869309107239</v>
       </c>
       <c r="E173" t="n">
-        <v>0.06704800468435924</v>
+        <v>0.09255677899884124</v>
       </c>
       <c r="F173" t="n">
-        <v>0.02701587369191016</v>
+        <v>0.04221470151809766</v>
       </c>
       <c r="G173" t="n">
-        <v>0.13885736452049</v>
+        <v>0.1865424549743156</v>
       </c>
       <c r="H173" t="n">
-        <v>0.002571297750493826</v>
+        <v>0.003955882522885949</v>
       </c>
       <c r="I173" t="n">
-        <v>0.06578364755946332</v>
+        <v>0.08955302093471769</v>
       </c>
       <c r="J173" t="n">
-        <v>0.07540995055223031</v>
+        <v>0.1153018150500682</v>
       </c>
       <c r="K173" t="n">
-        <v>0.02647521438180837</v>
+        <v>0.0393856840446917</v>
       </c>
       <c r="L173" t="n">
-        <v>0.01783783627088426</v>
+        <v>0.02182214539278251</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07757336903461136</v>
+        <v>0.1094838112692574</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08351691060967391</v>
+        <v>0.08956805771277582</v>
       </c>
       <c r="O173" t="n">
-        <v>0.2846470043640611</v>
+        <v>0.006562731385089397</v>
       </c>
       <c r="P173" t="n">
-        <v>0.2846470043640611</v>
+        <v>0.1865424549743156</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -11193,53 +11193,53 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91866.fa</t>
+          <t>even_MAG-GUT91603.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2.446951859359267e-14</v>
+        <v>2.274445611134706e-14</v>
       </c>
       <c r="C174" t="n">
-        <v>0.008942368952169528</v>
+        <v>0.02815550631142496</v>
       </c>
       <c r="D174" t="n">
-        <v>0.001349544923173848</v>
+        <v>0.1051080202685665</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1032284846625076</v>
+        <v>0.06704800468435924</v>
       </c>
       <c r="F174" t="n">
-        <v>0.04410202830285078</v>
+        <v>0.02701587369191016</v>
       </c>
       <c r="G174" t="n">
-        <v>0.2081083860448491</v>
+        <v>0.13885736452049</v>
       </c>
       <c r="H174" t="n">
-        <v>0.005096778247250778</v>
+        <v>0.002571297750493826</v>
       </c>
       <c r="I174" t="n">
-        <v>0.1117005202923839</v>
+        <v>0.06578364755946332</v>
       </c>
       <c r="J174" t="n">
-        <v>0.09869304991982761</v>
+        <v>0.07540995055223031</v>
       </c>
       <c r="K174" t="n">
-        <v>0.03508301991120856</v>
+        <v>0.02647521438180837</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04541427704391232</v>
+        <v>0.01783783627088426</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1270904925224559</v>
+        <v>0.07757336903461136</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1233790723034599</v>
+        <v>0.08351691060967391</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08781197687392556</v>
+        <v>0.2846470043640611</v>
       </c>
       <c r="P174" t="n">
-        <v>0.2081083860448491</v>
+        <v>0.2846470043640611</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -11255,53 +11255,53 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91873.fa</t>
+          <t>even_MAG-GUT91866.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.08482579529751584</v>
+        <v>2.446951859359267e-14</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01652829785149986</v>
+        <v>0.008942368952169528</v>
       </c>
       <c r="D175" t="n">
-        <v>0.01133373879453605</v>
+        <v>0.001349544923173848</v>
       </c>
       <c r="E175" t="n">
-        <v>0.09729860071034425</v>
+        <v>0.1032284846625076</v>
       </c>
       <c r="F175" t="n">
-        <v>0.04108391002153352</v>
+        <v>0.04410202830285078</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1965388220334377</v>
+        <v>0.2081083860448491</v>
       </c>
       <c r="H175" t="n">
-        <v>0.02382715013563292</v>
+        <v>0.005096778247250778</v>
       </c>
       <c r="I175" t="n">
-        <v>0.1037185386965817</v>
+        <v>0.1117005202923839</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1045645302716931</v>
+        <v>0.09869304991982761</v>
       </c>
       <c r="K175" t="n">
-        <v>0.03729077234261029</v>
+        <v>0.03508301991120856</v>
       </c>
       <c r="L175" t="n">
-        <v>0.02182055281709827</v>
+        <v>0.04541427704391232</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1135403929736716</v>
+        <v>0.1270904925224559</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08592221789568678</v>
+        <v>0.1233790723034599</v>
       </c>
       <c r="O175" t="n">
-        <v>0.06170668015815817</v>
+        <v>0.08781197687392556</v>
       </c>
       <c r="P175" t="n">
-        <v>0.1965388220334377</v>
+        <v>0.2081083860448491</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -11317,53 +11317,53 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91938.fa</t>
+          <t>even_MAG-GUT91873.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.0521340718764026</v>
+        <v>0.08482579529751584</v>
       </c>
       <c r="C176" t="n">
-        <v>0.03162228983299088</v>
+        <v>0.01652829785149986</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06935768681562726</v>
+        <v>0.01133373879453605</v>
       </c>
       <c r="E176" t="n">
-        <v>0.09344038360653106</v>
+        <v>0.09729860071034425</v>
       </c>
       <c r="F176" t="n">
-        <v>0.03991694396538048</v>
+        <v>0.04108391002153352</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1939765966224264</v>
+        <v>0.1965388220334377</v>
       </c>
       <c r="H176" t="n">
-        <v>0.006377891864376948</v>
+        <v>0.02382715013563292</v>
       </c>
       <c r="I176" t="n">
-        <v>0.09200129704329275</v>
+        <v>0.1037185386965817</v>
       </c>
       <c r="J176" t="n">
-        <v>0.09843864205512405</v>
+        <v>0.1045645302716931</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0673776510758277</v>
+        <v>0.03729077234261029</v>
       </c>
       <c r="L176" t="n">
-        <v>0.02179408696367134</v>
+        <v>0.02182055281709827</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1061564846331058</v>
+        <v>0.1135403929736716</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1117308287955436</v>
+        <v>0.08592221789568678</v>
       </c>
       <c r="O176" t="n">
-        <v>0.01567514484969908</v>
+        <v>0.06170668015815817</v>
       </c>
       <c r="P176" t="n">
-        <v>0.1939765966224264</v>
+        <v>0.1965388220334377</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -11379,53 +11379,53 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91964.fa</t>
+          <t>even_MAG-GUT91938.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2.221634331317455e-14</v>
+        <v>0.0521340718764026</v>
       </c>
       <c r="C177" t="n">
-        <v>0.02070674609186599</v>
+        <v>0.03162228983299088</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1573990414198311</v>
+        <v>0.06935768681562726</v>
       </c>
       <c r="E177" t="n">
-        <v>0.09193284301294466</v>
+        <v>0.09344038360653106</v>
       </c>
       <c r="F177" t="n">
-        <v>0.03819235570034806</v>
+        <v>0.03991694396538048</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1926591470868007</v>
+        <v>0.1939765966224264</v>
       </c>
       <c r="H177" t="n">
-        <v>0.01601724455429251</v>
+        <v>0.006377891864376948</v>
       </c>
       <c r="I177" t="n">
-        <v>0.09239347194014397</v>
+        <v>0.09200129704329275</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1061724067706803</v>
+        <v>0.09843864205512405</v>
       </c>
       <c r="K177" t="n">
-        <v>0.02841423901069975</v>
+        <v>0.0673776510758277</v>
       </c>
       <c r="L177" t="n">
-        <v>0.01131353910277349</v>
+        <v>0.02179408696367134</v>
       </c>
       <c r="M177" t="n">
-        <v>0.108791711777002</v>
+        <v>0.1061564846331058</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09134931533821045</v>
+        <v>0.1117308287955436</v>
       </c>
       <c r="O177" t="n">
-        <v>0.04465793819438463</v>
+        <v>0.01567514484969908</v>
       </c>
       <c r="P177" t="n">
-        <v>0.1926591470868007</v>
+        <v>0.1939765966224264</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -11441,53 +11441,53 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91970.fa</t>
+          <t>even_MAG-GUT91964.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2.248135243699789e-14</v>
+        <v>2.221634331317455e-14</v>
       </c>
       <c r="C178" t="n">
-        <v>0.007597759502426454</v>
+        <v>0.02070674609186599</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3137642867912195</v>
+        <v>0.1573990414198311</v>
       </c>
       <c r="E178" t="n">
-        <v>0.07661419142629963</v>
+        <v>0.09193284301294466</v>
       </c>
       <c r="F178" t="n">
-        <v>0.03163701911728634</v>
+        <v>0.03819235570034806</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1663196972021517</v>
+        <v>0.1926591470868007</v>
       </c>
       <c r="H178" t="n">
-        <v>0.01883928789831526</v>
+        <v>0.01601724455429251</v>
       </c>
       <c r="I178" t="n">
-        <v>0.08242679634316995</v>
+        <v>0.09239347194014397</v>
       </c>
       <c r="J178" t="n">
-        <v>0.08724326053859745</v>
+        <v>0.1061724067706803</v>
       </c>
       <c r="K178" t="n">
-        <v>0.02650286954844698</v>
+        <v>0.02841423901069975</v>
       </c>
       <c r="L178" t="n">
-        <v>0.008833633766801163</v>
+        <v>0.01131353910277349</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08656776442883132</v>
+        <v>0.108791711777002</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07071636245449545</v>
+        <v>0.09134931533821045</v>
       </c>
       <c r="O178" t="n">
-        <v>0.02293707098193623</v>
+        <v>0.04465793819438463</v>
       </c>
       <c r="P178" t="n">
-        <v>0.3137642867912195</v>
+        <v>0.1926591470868007</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -11503,53 +11503,53 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91971.fa</t>
+          <t>even_MAG-GUT91970.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.05569104414941452</v>
+        <v>2.248135243699789e-14</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01822330409365636</v>
+        <v>0.007597759502426454</v>
       </c>
       <c r="D179" t="n">
-        <v>0.09458686189920779</v>
+        <v>0.3137642867912195</v>
       </c>
       <c r="E179" t="n">
-        <v>0.09379256355070416</v>
+        <v>0.07661419142629963</v>
       </c>
       <c r="F179" t="n">
-        <v>0.04398746194423784</v>
+        <v>0.03163701911728634</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1896751092506299</v>
+        <v>0.1663196972021517</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0205379583361761</v>
+        <v>0.01883928789831526</v>
       </c>
       <c r="I179" t="n">
-        <v>0.1012342377875828</v>
+        <v>0.08242679634316995</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1029696171142424</v>
+        <v>0.08724326053859745</v>
       </c>
       <c r="K179" t="n">
-        <v>0.04095722895416288</v>
+        <v>0.02650286954844698</v>
       </c>
       <c r="L179" t="n">
-        <v>0.01083029383299586</v>
+        <v>0.008833633766801163</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1078160818099695</v>
+        <v>0.08656776442883132</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1086303025554206</v>
+        <v>0.07071636245449545</v>
       </c>
       <c r="O179" t="n">
-        <v>0.01106793472159924</v>
+        <v>0.02293707098193623</v>
       </c>
       <c r="P179" t="n">
-        <v>0.1896751092506299</v>
+        <v>0.3137642867912195</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -11565,53 +11565,53 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91990.fa</t>
+          <t>even_MAG-GUT91971.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.07248887815263497</v>
+        <v>0.05569104414941452</v>
       </c>
       <c r="C180" t="n">
-        <v>0.03471058824809376</v>
+        <v>0.01822330409365636</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04151319599487996</v>
+        <v>0.09458686189920779</v>
       </c>
       <c r="E180" t="n">
-        <v>0.09599839590385914</v>
+        <v>0.09379256355070416</v>
       </c>
       <c r="F180" t="n">
-        <v>0.04724640880905165</v>
+        <v>0.04398746194423784</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1964580290367038</v>
+        <v>0.1896751092506299</v>
       </c>
       <c r="H180" t="n">
-        <v>0.008766823079419233</v>
+        <v>0.0205379583361761</v>
       </c>
       <c r="I180" t="n">
-        <v>0.09615838655650658</v>
+        <v>0.1012342377875828</v>
       </c>
       <c r="J180" t="n">
-        <v>0.09830634296507929</v>
+        <v>0.1029696171142424</v>
       </c>
       <c r="K180" t="n">
-        <v>0.03134711515357049</v>
+        <v>0.04095722895416288</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0222015290430294</v>
+        <v>0.01083029383299586</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1107176632097404</v>
+        <v>0.1078160818099695</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1073532099511917</v>
+        <v>0.1086303025554206</v>
       </c>
       <c r="O180" t="n">
-        <v>0.03673343389623952</v>
+        <v>0.01106793472159924</v>
       </c>
       <c r="P180" t="n">
-        <v>0.1964580290367038</v>
+        <v>0.1896751092506299</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -11627,53 +11627,53 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91993.fa</t>
+          <t>even_MAG-GUT91990.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.08866559565559583</v>
+        <v>0.07248887815263497</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01970982096139498</v>
+        <v>0.03471058824809376</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03588030374190557</v>
+        <v>0.04151319599487996</v>
       </c>
       <c r="E181" t="n">
-        <v>0.09710614728164994</v>
+        <v>0.09599839590385914</v>
       </c>
       <c r="F181" t="n">
-        <v>0.04328331207265076</v>
+        <v>0.04724640880905165</v>
       </c>
       <c r="G181" t="n">
-        <v>0.2009563960463626</v>
+        <v>0.1964580290367038</v>
       </c>
       <c r="H181" t="n">
-        <v>0.02100674861227605</v>
+        <v>0.008766823079419233</v>
       </c>
       <c r="I181" t="n">
-        <v>0.09390254834456603</v>
+        <v>0.09615838655650658</v>
       </c>
       <c r="J181" t="n">
-        <v>0.09400109025618333</v>
+        <v>0.09830634296507929</v>
       </c>
       <c r="K181" t="n">
-        <v>0.04112133674552314</v>
+        <v>0.03134711515357049</v>
       </c>
       <c r="L181" t="n">
-        <v>0.01661710711531442</v>
+        <v>0.0222015290430294</v>
       </c>
       <c r="M181" t="n">
-        <v>0.110874919668731</v>
+        <v>0.1107176632097404</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1037706370826196</v>
+        <v>0.1073532099511917</v>
       </c>
       <c r="O181" t="n">
-        <v>0.03310403641522676</v>
+        <v>0.03673343389623952</v>
       </c>
       <c r="P181" t="n">
-        <v>0.2009563960463626</v>
+        <v>0.1964580290367038</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -11689,53 +11689,53 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92001.fa</t>
+          <t>even_MAG-GUT91993.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2.225481097448475e-14</v>
+        <v>0.08866559565559583</v>
       </c>
       <c r="C182" t="n">
-        <v>0.02878295855022504</v>
+        <v>0.01970982096139498</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2014049826702511</v>
+        <v>0.03588030374190557</v>
       </c>
       <c r="E182" t="n">
-        <v>0.09036400505118232</v>
+        <v>0.09710614728164994</v>
       </c>
       <c r="F182" t="n">
-        <v>0.03927491528222804</v>
+        <v>0.04328331207265076</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1879798561629702</v>
+        <v>0.2009563960463626</v>
       </c>
       <c r="H182" t="n">
-        <v>0.002967166164952192</v>
+        <v>0.02100674861227605</v>
       </c>
       <c r="I182" t="n">
-        <v>0.08596481950389895</v>
+        <v>0.09390254834456603</v>
       </c>
       <c r="J182" t="n">
-        <v>0.08389540923476665</v>
+        <v>0.09400109025618333</v>
       </c>
       <c r="K182" t="n">
-        <v>0.05330430903875785</v>
+        <v>0.04112133674552314</v>
       </c>
       <c r="L182" t="n">
-        <v>0.02126975213766287</v>
+        <v>0.01661710711531442</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1071969083158701</v>
+        <v>0.110874919668731</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09237275312405478</v>
+        <v>0.1037706370826196</v>
       </c>
       <c r="O182" t="n">
-        <v>0.005222164763157655</v>
+        <v>0.03310403641522676</v>
       </c>
       <c r="P182" t="n">
-        <v>0.2014049826702511</v>
+        <v>0.2009563960463626</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -11751,53 +11751,53 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92091.fa</t>
+          <t>even_MAG-GUT92001.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2.221507098366661e-14</v>
+        <v>2.225481097448475e-14</v>
       </c>
       <c r="C183" t="n">
-        <v>0.03182834682307017</v>
+        <v>0.02878295855022504</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1845545261729938</v>
+        <v>0.2014049826702511</v>
       </c>
       <c r="E183" t="n">
-        <v>0.09262294555596413</v>
+        <v>0.09036400505118232</v>
       </c>
       <c r="F183" t="n">
-        <v>0.04610647985224674</v>
+        <v>0.03927491528222804</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1905780268801451</v>
+        <v>0.1879798561629702</v>
       </c>
       <c r="H183" t="n">
-        <v>0.00689877842213246</v>
+        <v>0.002967166164952192</v>
       </c>
       <c r="I183" t="n">
-        <v>0.08533868789855732</v>
+        <v>0.08596481950389895</v>
       </c>
       <c r="J183" t="n">
-        <v>0.09933105369395138</v>
+        <v>0.08389540923476665</v>
       </c>
       <c r="K183" t="n">
-        <v>0.04679697476961085</v>
+        <v>0.05330430903875785</v>
       </c>
       <c r="L183" t="n">
-        <v>0.02039202761217632</v>
+        <v>0.02126975213766287</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1121728407146554</v>
+        <v>0.1071969083158701</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07411382610629887</v>
+        <v>0.09237275312405478</v>
       </c>
       <c r="O183" t="n">
-        <v>0.009265485498175111</v>
+        <v>0.005222164763157655</v>
       </c>
       <c r="P183" t="n">
-        <v>0.1905780268801451</v>
+        <v>0.2014049826702511</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -11813,60 +11813,122 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT92091.fa</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2.221507098366661e-14</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.03182834682307017</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1845545261729938</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.09262294555596413</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.04610647985224674</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.1905780268801451</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.00689877842213246</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.08533868789855732</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.09933105369395138</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.04679697476961085</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.02039202761217632</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.1121728407146554</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.07411382610629887</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0.009265485498175111</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0.1905780268801451</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>s__Veillonella atypica</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT956.fa</t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B185" t="n">
         <v>2.268727171868252e-14</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C185" t="n">
         <v>0.0118180661248464</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D185" t="n">
         <v>0.4430024378593409</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E185" t="n">
         <v>0.0624214234910619</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F185" t="n">
         <v>0.02787347604463454</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G185" t="n">
         <v>0.131974696791908</v>
       </c>
-      <c r="H184" t="n">
+      <c r="H185" t="n">
         <v>0.001848014249755597</v>
       </c>
-      <c r="I184" t="n">
+      <c r="I185" t="n">
         <v>0.06240560546593386</v>
       </c>
-      <c r="J184" t="n">
+      <c r="J185" t="n">
         <v>0.06521959174812375</v>
       </c>
-      <c r="K184" t="n">
+      <c r="K185" t="n">
         <v>0.04681667840702312</v>
       </c>
-      <c r="L184" t="n">
+      <c r="L185" t="n">
         <v>0.01228319220508126</v>
       </c>
-      <c r="M184" t="n">
+      <c r="M185" t="n">
         <v>0.0766944057261406</v>
       </c>
-      <c r="N184" t="n">
+      <c r="N185" t="n">
         <v>0.05649957863689959</v>
       </c>
-      <c r="O184" t="n">
+      <c r="O185" t="n">
         <v>0.00114283324922773</v>
       </c>
-      <c r="P184" t="n">
+      <c r="P185" t="n">
         <v>0.4430024378593409</v>
       </c>
-      <c r="Q184" t="inlineStr">
+      <c r="Q185" t="inlineStr">
         <is>
           <t>s__Veillonella rogosae</t>
         </is>
       </c>
-      <c r="R184" t="inlineStr">
+      <c r="R185" t="inlineStr">
         <is>
           <t>s__Veillonella rogosae</t>
         </is>
